--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,15 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['23', '49', '83']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -446,6 +455,18 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['17', '47']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['32', '55']</t>
+  </si>
+  <si>
+    <t>['43', '64']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1087,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1147,7 +1168,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1559,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1684,7 +1705,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1762,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>1.2</v>
@@ -1890,7 +1911,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2096,7 +2117,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2177,7 +2198,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2302,7 +2323,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2508,7 +2529,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2589,7 +2610,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR9">
         <v>1.95</v>
@@ -2714,7 +2735,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -2792,7 +2813,7 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
         <v>1.2</v>
@@ -2920,7 +2941,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3126,7 +3147,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3207,7 +3228,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
         <v>1.8</v>
@@ -3332,7 +3353,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3616,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3950,7 +3971,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4237,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR17">
         <v>1.3</v>
@@ -4646,7 +4667,7 @@
         <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -4980,7 +5001,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5061,7 +5082,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR21">
         <v>1.94</v>
@@ -5186,7 +5207,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5264,7 +5285,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5470,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -5679,7 +5700,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>1.82</v>
@@ -5804,7 +5825,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5885,7 +5906,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR25">
         <v>1.2</v>
@@ -6010,7 +6031,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6216,7 +6237,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6422,7 +6443,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6706,10 +6727,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6834,7 +6855,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7040,7 +7061,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7246,7 +7267,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7324,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>0.25</v>
@@ -7658,7 +7679,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7739,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
         <v>1.58</v>
@@ -7945,7 +7966,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8148,10 +8169,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8276,7 +8297,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8354,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8482,7 +8503,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8560,10 +8581,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR38">
         <v>2.21</v>
@@ -8766,7 +8787,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -8972,7 +8993,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>0.25</v>
@@ -9100,7 +9121,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9306,7 +9327,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9590,10 +9611,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>1.25</v>
@@ -10130,7 +10151,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10336,7 +10357,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10414,10 +10435,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR47">
         <v>0.99</v>
@@ -10829,7 +10850,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -10954,7 +10975,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11160,7 +11181,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11317,6 +11338,830 @@
       </c>
       <c r="BP51">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7806806</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45766.08333333334</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>116</v>
+      </c>
+      <c r="P52" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q52">
+        <v>2.38</v>
+      </c>
+      <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>5.5</v>
+      </c>
+      <c r="T52">
+        <v>1.44</v>
+      </c>
+      <c r="U52">
+        <v>2.63</v>
+      </c>
+      <c r="V52">
+        <v>3.25</v>
+      </c>
+      <c r="W52">
+        <v>1.33</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>1.06</v>
+      </c>
+      <c r="Z52">
+        <v>1.67</v>
+      </c>
+      <c r="AA52">
+        <v>3.86</v>
+      </c>
+      <c r="AB52">
+        <v>4.7</v>
+      </c>
+      <c r="AC52">
+        <v>1.06</v>
+      </c>
+      <c r="AD52">
+        <v>8.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.36</v>
+      </c>
+      <c r="AF52">
+        <v>3.1</v>
+      </c>
+      <c r="AG52">
+        <v>1.83</v>
+      </c>
+      <c r="AH52">
+        <v>1.91</v>
+      </c>
+      <c r="AI52">
+        <v>2</v>
+      </c>
+      <c r="AJ52">
+        <v>1.73</v>
+      </c>
+      <c r="AK52">
+        <v>1.17</v>
+      </c>
+      <c r="AL52">
+        <v>1.22</v>
+      </c>
+      <c r="AM52">
+        <v>2.05</v>
+      </c>
+      <c r="AN52">
+        <v>1.4</v>
+      </c>
+      <c r="AO52">
+        <v>0.75</v>
+      </c>
+      <c r="AP52">
+        <v>1.17</v>
+      </c>
+      <c r="AQ52">
+        <v>1.2</v>
+      </c>
+      <c r="AR52">
+        <v>2.04</v>
+      </c>
+      <c r="AS52">
+        <v>1</v>
+      </c>
+      <c r="AT52">
+        <v>3.04</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>14</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>26</v>
+      </c>
+      <c r="AZ52">
+        <v>9</v>
+      </c>
+      <c r="BA52">
+        <v>9</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>9</v>
+      </c>
+      <c r="BD52">
+        <v>1.56</v>
+      </c>
+      <c r="BE52">
+        <v>6.4</v>
+      </c>
+      <c r="BF52">
+        <v>2.7</v>
+      </c>
+      <c r="BG52">
+        <v>1.54</v>
+      </c>
+      <c r="BH52">
+        <v>2.28</v>
+      </c>
+      <c r="BI52">
+        <v>1.92</v>
+      </c>
+      <c r="BJ52">
+        <v>1.78</v>
+      </c>
+      <c r="BK52">
+        <v>2.45</v>
+      </c>
+      <c r="BL52">
+        <v>1.48</v>
+      </c>
+      <c r="BM52">
+        <v>3.2</v>
+      </c>
+      <c r="BN52">
+        <v>1.28</v>
+      </c>
+      <c r="BO52">
+        <v>4.35</v>
+      </c>
+      <c r="BP52">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7806808</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45766.1875</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>117</v>
+      </c>
+      <c r="P53" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q53">
+        <v>3.1</v>
+      </c>
+      <c r="R53">
+        <v>2.05</v>
+      </c>
+      <c r="S53">
+        <v>3.6</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.63</v>
+      </c>
+      <c r="V53">
+        <v>3.25</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>1.07</v>
+      </c>
+      <c r="Z53">
+        <v>2.38</v>
+      </c>
+      <c r="AA53">
+        <v>3.32</v>
+      </c>
+      <c r="AB53">
+        <v>2.87</v>
+      </c>
+      <c r="AC53">
+        <v>1.06</v>
+      </c>
+      <c r="AD53">
+        <v>8.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.33</v>
+      </c>
+      <c r="AF53">
+        <v>3.2</v>
+      </c>
+      <c r="AG53">
+        <v>2</v>
+      </c>
+      <c r="AH53">
+        <v>1.67</v>
+      </c>
+      <c r="AI53">
+        <v>1.83</v>
+      </c>
+      <c r="AJ53">
+        <v>1.83</v>
+      </c>
+      <c r="AK53">
+        <v>1.38</v>
+      </c>
+      <c r="AL53">
+        <v>1.25</v>
+      </c>
+      <c r="AM53">
+        <v>1.57</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>0.25</v>
+      </c>
+      <c r="AP53">
+        <v>1.5</v>
+      </c>
+      <c r="AQ53">
+        <v>0.2</v>
+      </c>
+      <c r="AR53">
+        <v>1.51</v>
+      </c>
+      <c r="AS53">
+        <v>1.06</v>
+      </c>
+      <c r="AT53">
+        <v>2.57</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>7</v>
+      </c>
+      <c r="AY53">
+        <v>12</v>
+      </c>
+      <c r="AZ53">
+        <v>20</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>8</v>
+      </c>
+      <c r="BC53">
+        <v>11</v>
+      </c>
+      <c r="BD53">
+        <v>1.83</v>
+      </c>
+      <c r="BE53">
+        <v>5.8</v>
+      </c>
+      <c r="BF53">
+        <v>2.23</v>
+      </c>
+      <c r="BG53">
+        <v>1.58</v>
+      </c>
+      <c r="BH53">
+        <v>2.2</v>
+      </c>
+      <c r="BI53">
+        <v>1.98</v>
+      </c>
+      <c r="BJ53">
+        <v>1.74</v>
+      </c>
+      <c r="BK53">
+        <v>2.55</v>
+      </c>
+      <c r="BL53">
+        <v>1.44</v>
+      </c>
+      <c r="BM53">
+        <v>3.4</v>
+      </c>
+      <c r="BN53">
+        <v>1.25</v>
+      </c>
+      <c r="BO53">
+        <v>4.6</v>
+      </c>
+      <c r="BP53">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7806807</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45766.1875</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>82</v>
+      </c>
+      <c r="P54" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q54">
+        <v>2.75</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>4.33</v>
+      </c>
+      <c r="T54">
+        <v>1.44</v>
+      </c>
+      <c r="U54">
+        <v>2.63</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>9</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>2</v>
+      </c>
+      <c r="AA54">
+        <v>3.06</v>
+      </c>
+      <c r="AB54">
+        <v>4.1</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.3</v>
+      </c>
+      <c r="AF54">
+        <v>3.35</v>
+      </c>
+      <c r="AG54">
+        <v>2</v>
+      </c>
+      <c r="AH54">
+        <v>1.75</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1.91</v>
+      </c>
+      <c r="AK54">
+        <v>1.25</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.75</v>
+      </c>
+      <c r="AN54">
+        <v>2.33</v>
+      </c>
+      <c r="AO54">
+        <v>2.6</v>
+      </c>
+      <c r="AP54">
+        <v>1.75</v>
+      </c>
+      <c r="AQ54">
+        <v>2.67</v>
+      </c>
+      <c r="AR54">
+        <v>1.88</v>
+      </c>
+      <c r="AS54">
+        <v>1.23</v>
+      </c>
+      <c r="AT54">
+        <v>3.11</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>7</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>12</v>
+      </c>
+      <c r="AZ54">
+        <v>12</v>
+      </c>
+      <c r="BA54">
+        <v>4</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>1.64</v>
+      </c>
+      <c r="BE54">
+        <v>6.25</v>
+      </c>
+      <c r="BF54">
+        <v>2.55</v>
+      </c>
+      <c r="BG54">
+        <v>1.52</v>
+      </c>
+      <c r="BH54">
+        <v>2.33</v>
+      </c>
+      <c r="BI54">
+        <v>1.89</v>
+      </c>
+      <c r="BJ54">
+        <v>1.8</v>
+      </c>
+      <c r="BK54">
+        <v>2.4</v>
+      </c>
+      <c r="BL54">
+        <v>1.49</v>
+      </c>
+      <c r="BM54">
+        <v>3.15</v>
+      </c>
+      <c r="BN54">
+        <v>1.29</v>
+      </c>
+      <c r="BO54">
+        <v>4.3</v>
+      </c>
+      <c r="BP54">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7806809</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45766.29166666666</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>118</v>
+      </c>
+      <c r="P55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q55">
+        <v>2.75</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>4.75</v>
+      </c>
+      <c r="T55">
+        <v>1.53</v>
+      </c>
+      <c r="U55">
+        <v>2.38</v>
+      </c>
+      <c r="V55">
+        <v>3.5</v>
+      </c>
+      <c r="W55">
+        <v>1.29</v>
+      </c>
+      <c r="X55">
+        <v>11</v>
+      </c>
+      <c r="Y55">
+        <v>1.05</v>
+      </c>
+      <c r="Z55">
+        <v>1.98</v>
+      </c>
+      <c r="AA55">
+        <v>3.18</v>
+      </c>
+      <c r="AB55">
+        <v>4</v>
+      </c>
+      <c r="AC55">
+        <v>1.09</v>
+      </c>
+      <c r="AD55">
+        <v>7</v>
+      </c>
+      <c r="AE55">
+        <v>1.45</v>
+      </c>
+      <c r="AF55">
+        <v>2.7</v>
+      </c>
+      <c r="AG55">
+        <v>2.25</v>
+      </c>
+      <c r="AH55">
+        <v>1.53</v>
+      </c>
+      <c r="AI55">
+        <v>2.1</v>
+      </c>
+      <c r="AJ55">
+        <v>1.67</v>
+      </c>
+      <c r="AK55">
+        <v>1.25</v>
+      </c>
+      <c r="AL55">
+        <v>1.28</v>
+      </c>
+      <c r="AM55">
+        <v>1.77</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>0.75</v>
+      </c>
+      <c r="AP55">
+        <v>1.6</v>
+      </c>
+      <c r="AQ55">
+        <v>1.2</v>
+      </c>
+      <c r="AR55">
+        <v>1.28</v>
+      </c>
+      <c r="AS55">
+        <v>1.11</v>
+      </c>
+      <c r="AT55">
+        <v>2.39</v>
+      </c>
+      <c r="AU55">
+        <v>3</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>19</v>
+      </c>
+      <c r="AX55">
+        <v>4</v>
+      </c>
+      <c r="AY55">
+        <v>30</v>
+      </c>
+      <c r="AZ55">
+        <v>9</v>
+      </c>
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>9</v>
+      </c>
+      <c r="BD55">
+        <v>1.66</v>
+      </c>
+      <c r="BE55">
+        <v>6.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.48</v>
+      </c>
+      <c r="BG55">
+        <v>1.49</v>
+      </c>
+      <c r="BH55">
+        <v>2.43</v>
+      </c>
+      <c r="BI55">
+        <v>1.8</v>
+      </c>
+      <c r="BJ55">
+        <v>1.89</v>
+      </c>
+      <c r="BK55">
+        <v>2.28</v>
+      </c>
+      <c r="BL55">
+        <v>1.54</v>
+      </c>
+      <c r="BM55">
+        <v>2.95</v>
+      </c>
+      <c r="BN55">
+        <v>1.33</v>
+      </c>
+      <c r="BO55">
+        <v>3.95</v>
+      </c>
+      <c r="BP55">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['3', '78']</t>
+  </si>
+  <si>
+    <t>['5', '18', '39']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -467,6 +473,9 @@
   </si>
   <si>
     <t>['43', '64']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1096,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1371,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -1705,7 +1714,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1911,7 +1920,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1989,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.4</v>
@@ -2117,7 +2126,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2323,7 +2332,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2401,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
         <v>1.4</v>
@@ -2529,7 +2538,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2735,7 +2744,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -2941,7 +2950,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3147,7 +3156,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3225,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.2</v>
@@ -3353,7 +3362,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3434,7 +3443,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3846,7 +3855,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR15">
         <v>1.87</v>
@@ -3971,7 +3980,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -5001,7 +5010,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5207,7 +5216,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5697,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -5825,7 +5834,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5903,7 +5912,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
         <v>2.67</v>
@@ -6031,7 +6040,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6237,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6443,7 +6452,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6855,7 +6864,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -6933,10 +6942,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -7061,7 +7070,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7142,7 +7151,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.73</v>
@@ -7267,7 +7276,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7348,7 +7357,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>0.86</v>
@@ -7679,7 +7688,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7963,7 +7972,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35">
         <v>0.2</v>
@@ -8297,7 +8306,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8503,7 +8512,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8996,7 +9005,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -9121,7 +9130,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9327,7 +9336,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9408,7 +9417,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.2</v>
@@ -10026,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR45">
         <v>1.77</v>
@@ -10151,7 +10160,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10357,7 +10366,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10975,7 +10984,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11053,7 +11062,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>0.5</v>
@@ -11181,7 +11190,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11387,7 +11396,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11593,7 +11602,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11799,7 +11808,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12005,7 +12014,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12162,6 +12171,418 @@
       </c>
       <c r="BP55">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7806810</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45767.1875</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>119</v>
+      </c>
+      <c r="P56" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q56">
+        <v>3.5</v>
+      </c>
+      <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>3.25</v>
+      </c>
+      <c r="T56">
+        <v>1.44</v>
+      </c>
+      <c r="U56">
+        <v>2.63</v>
+      </c>
+      <c r="V56">
+        <v>3.25</v>
+      </c>
+      <c r="W56">
+        <v>1.33</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Y56">
+        <v>1.06</v>
+      </c>
+      <c r="Z56">
+        <v>2.79</v>
+      </c>
+      <c r="AA56">
+        <v>3.08</v>
+      </c>
+      <c r="AB56">
+        <v>2.59</v>
+      </c>
+      <c r="AC56">
+        <v>1.07</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>1.38</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>2</v>
+      </c>
+      <c r="AH56">
+        <v>1.67</v>
+      </c>
+      <c r="AI56">
+        <v>1.83</v>
+      </c>
+      <c r="AJ56">
+        <v>1.83</v>
+      </c>
+      <c r="AK56">
+        <v>1.5</v>
+      </c>
+      <c r="AL56">
+        <v>1.28</v>
+      </c>
+      <c r="AM56">
+        <v>1.42</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>1.25</v>
+      </c>
+      <c r="AP56">
+        <v>1.8</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.24</v>
+      </c>
+      <c r="AS56">
+        <v>1.59</v>
+      </c>
+      <c r="AT56">
+        <v>2.83</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>10</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>18</v>
+      </c>
+      <c r="AZ56">
+        <v>16</v>
+      </c>
+      <c r="BA56">
+        <v>8</v>
+      </c>
+      <c r="BB56">
+        <v>7</v>
+      </c>
+      <c r="BC56">
+        <v>15</v>
+      </c>
+      <c r="BD56">
+        <v>2.12</v>
+      </c>
+      <c r="BE56">
+        <v>6.25</v>
+      </c>
+      <c r="BF56">
+        <v>1.9</v>
+      </c>
+      <c r="BG56">
+        <v>1.52</v>
+      </c>
+      <c r="BH56">
+        <v>2.33</v>
+      </c>
+      <c r="BI56">
+        <v>1.88</v>
+      </c>
+      <c r="BJ56">
+        <v>1.81</v>
+      </c>
+      <c r="BK56">
+        <v>2.4</v>
+      </c>
+      <c r="BL56">
+        <v>1.49</v>
+      </c>
+      <c r="BM56">
+        <v>3.15</v>
+      </c>
+      <c r="BN56">
+        <v>1.29</v>
+      </c>
+      <c r="BO56">
+        <v>4.3</v>
+      </c>
+      <c r="BP56">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7806811</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45767.1875</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q57">
+        <v>2.3</v>
+      </c>
+      <c r="R57">
+        <v>2.2</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>1.4</v>
+      </c>
+      <c r="U57">
+        <v>2.75</v>
+      </c>
+      <c r="V57">
+        <v>2.75</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57">
+        <v>8</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>1.7</v>
+      </c>
+      <c r="AA57">
+        <v>3.71</v>
+      </c>
+      <c r="AB57">
+        <v>4.75</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>9.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.28</v>
+      </c>
+      <c r="AF57">
+        <v>3.55</v>
+      </c>
+      <c r="AG57">
+        <v>1.87</v>
+      </c>
+      <c r="AH57">
+        <v>1.87</v>
+      </c>
+      <c r="AI57">
+        <v>1.83</v>
+      </c>
+      <c r="AJ57">
+        <v>1.83</v>
+      </c>
+      <c r="AK57">
+        <v>1.18</v>
+      </c>
+      <c r="AL57">
+        <v>1.22</v>
+      </c>
+      <c r="AM57">
+        <v>2.05</v>
+      </c>
+      <c r="AN57">
+        <v>1.2</v>
+      </c>
+      <c r="AO57">
+        <v>0.25</v>
+      </c>
+      <c r="AP57">
+        <v>1.5</v>
+      </c>
+      <c r="AQ57">
+        <v>0.2</v>
+      </c>
+      <c r="AR57">
+        <v>1.63</v>
+      </c>
+      <c r="AS57">
+        <v>1.28</v>
+      </c>
+      <c r="AT57">
+        <v>2.91</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>8</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>18</v>
+      </c>
+      <c r="AZ57">
+        <v>15</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>8</v>
+      </c>
+      <c r="BD57">
+        <v>1.6</v>
+      </c>
+      <c r="BE57">
+        <v>6.4</v>
+      </c>
+      <c r="BF57">
+        <v>2.63</v>
+      </c>
+      <c r="BG57">
+        <v>1.41</v>
+      </c>
+      <c r="BH57">
+        <v>2.65</v>
+      </c>
+      <c r="BI57">
+        <v>1.68</v>
+      </c>
+      <c r="BJ57">
+        <v>2.05</v>
+      </c>
+      <c r="BK57">
+        <v>2.08</v>
+      </c>
+      <c r="BL57">
+        <v>1.66</v>
+      </c>
+      <c r="BM57">
+        <v>2.65</v>
+      </c>
+      <c r="BN57">
+        <v>1.4</v>
+      </c>
+      <c r="BO57">
+        <v>3.55</v>
+      </c>
+      <c r="BP57">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3031,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5294,7 +5297,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -6533,7 +6536,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -7563,7 +7566,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -8384,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -9620,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>1.2</v>
@@ -11271,7 +11274,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -11680,7 +11683,7 @@
         <v>0.25</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>0.2</v>
@@ -12583,6 +12586,212 @@
       </c>
       <c r="BP57">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7806871</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45770.3125</v>
+      </c>
+      <c r="F58">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q58">
+        <v>4.5</v>
+      </c>
+      <c r="R58">
+        <v>2.1</v>
+      </c>
+      <c r="S58">
+        <v>2.35</v>
+      </c>
+      <c r="T58">
+        <v>1.38</v>
+      </c>
+      <c r="U58">
+        <v>2.8</v>
+      </c>
+      <c r="V58">
+        <v>2.75</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>7.9</v>
+      </c>
+      <c r="Y58">
+        <v>1.02</v>
+      </c>
+      <c r="Z58">
+        <v>4.6</v>
+      </c>
+      <c r="AA58">
+        <v>3.55</v>
+      </c>
+      <c r="AB58">
+        <v>1.75</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE58">
+        <v>1.35</v>
+      </c>
+      <c r="AF58">
+        <v>3.19</v>
+      </c>
+      <c r="AG58">
+        <v>1.95</v>
+      </c>
+      <c r="AH58">
+        <v>1.79</v>
+      </c>
+      <c r="AI58">
+        <v>1.8</v>
+      </c>
+      <c r="AJ58">
+        <v>1.85</v>
+      </c>
+      <c r="AK58">
+        <v>1.95</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.2</v>
+      </c>
+      <c r="AN58">
+        <v>1.5</v>
+      </c>
+      <c r="AO58">
+        <v>1.75</v>
+      </c>
+      <c r="AP58">
+        <v>1.2</v>
+      </c>
+      <c r="AQ58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>1.54</v>
+      </c>
+      <c r="AS58">
+        <v>1.78</v>
+      </c>
+      <c r="AT58">
+        <v>3.32</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>11</v>
+      </c>
+      <c r="AX58">
+        <v>10</v>
+      </c>
+      <c r="AY58">
+        <v>20</v>
+      </c>
+      <c r="AZ58">
+        <v>18</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>11</v>
+      </c>
+      <c r="BD58">
+        <v>2.55</v>
+      </c>
+      <c r="BE58">
+        <v>6.1</v>
+      </c>
+      <c r="BF58">
+        <v>1.65</v>
+      </c>
+      <c r="BG58">
+        <v>1.56</v>
+      </c>
+      <c r="BH58">
+        <v>2.23</v>
+      </c>
+      <c r="BI58">
+        <v>1.95</v>
+      </c>
+      <c r="BJ58">
+        <v>1.75</v>
+      </c>
+      <c r="BK58">
+        <v>2.5</v>
+      </c>
+      <c r="BL58">
+        <v>1.46</v>
+      </c>
+      <c r="BM58">
+        <v>3.3</v>
+      </c>
+      <c r="BN58">
+        <v>1.27</v>
+      </c>
+      <c r="BO58">
+        <v>4.4</v>
+      </c>
+      <c r="BP58">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,12 @@
     <t>['5', '18', '39']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['13', '61']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -479,6 +485,9 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['65', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1108,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1717,7 +1726,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1923,7 +1932,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2129,7 +2138,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2335,7 +2344,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2541,7 +2550,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2747,7 +2756,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -2953,7 +2962,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3159,7 +3168,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3365,7 +3374,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3652,7 +3661,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR14">
         <v>2.51</v>
@@ -3983,7 +3992,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4476,7 +4485,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR18">
         <v>2.13</v>
@@ -4885,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5013,7 +5022,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5219,7 +5228,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5297,7 +5306,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5506,7 +5515,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR23">
         <v>2.19</v>
@@ -5837,7 +5846,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6043,7 +6052,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6249,7 +6258,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6455,7 +6464,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6533,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -6867,7 +6876,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7073,7 +7082,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7279,7 +7288,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7691,7 +7700,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8309,7 +8318,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8387,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR37">
         <v>1.26</v>
@@ -8515,7 +8524,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9133,7 +9142,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9214,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR41">
         <v>1.54</v>
@@ -9339,7 +9348,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9417,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9623,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>1.2</v>
@@ -9832,7 +9841,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR44">
         <v>1.71</v>
@@ -10163,7 +10172,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10241,7 +10250,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>1.4</v>
@@ -10369,7 +10378,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10987,7 +10996,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11068,7 +11077,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR50">
         <v>1.68</v>
@@ -11193,7 +11202,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11399,7 +11408,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11605,7 +11614,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11683,7 +11692,7 @@
         <v>0.25</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.2</v>
@@ -11811,7 +11820,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12017,7 +12026,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12429,7 +12438,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12635,7 +12644,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12713,7 +12722,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -12792,6 +12801,418 @@
       </c>
       <c r="BP58">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7806812</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45773.08333333334</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P59" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>2.1</v>
+      </c>
+      <c r="S59">
+        <v>2.88</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.63</v>
+      </c>
+      <c r="V59">
+        <v>3</v>
+      </c>
+      <c r="W59">
+        <v>1.36</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>3.14</v>
+      </c>
+      <c r="AA59">
+        <v>3.26</v>
+      </c>
+      <c r="AB59">
+        <v>2.25</v>
+      </c>
+      <c r="AC59">
+        <v>1.06</v>
+      </c>
+      <c r="AD59">
+        <v>8.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.33</v>
+      </c>
+      <c r="AF59">
+        <v>3.3</v>
+      </c>
+      <c r="AG59">
+        <v>1.98</v>
+      </c>
+      <c r="AH59">
+        <v>1.77</v>
+      </c>
+      <c r="AI59">
+        <v>1.8</v>
+      </c>
+      <c r="AJ59">
+        <v>1.91</v>
+      </c>
+      <c r="AK59">
+        <v>1.65</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.33</v>
+      </c>
+      <c r="AN59">
+        <v>1.5</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>1.2</v>
+      </c>
+      <c r="AQ59">
+        <v>2.25</v>
+      </c>
+      <c r="AR59">
+        <v>1.49</v>
+      </c>
+      <c r="AS59">
+        <v>1.19</v>
+      </c>
+      <c r="AT59">
+        <v>2.68</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>10</v>
+      </c>
+      <c r="AX59">
+        <v>5</v>
+      </c>
+      <c r="AY59">
+        <v>19</v>
+      </c>
+      <c r="AZ59">
+        <v>11</v>
+      </c>
+      <c r="BA59">
+        <v>2</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
+        <v>7</v>
+      </c>
+      <c r="BD59">
+        <v>2.08</v>
+      </c>
+      <c r="BE59">
+        <v>6.25</v>
+      </c>
+      <c r="BF59">
+        <v>1.92</v>
+      </c>
+      <c r="BG59">
+        <v>1.47</v>
+      </c>
+      <c r="BH59">
+        <v>2.48</v>
+      </c>
+      <c r="BI59">
+        <v>1.76</v>
+      </c>
+      <c r="BJ59">
+        <v>1.93</v>
+      </c>
+      <c r="BK59">
+        <v>2.23</v>
+      </c>
+      <c r="BL59">
+        <v>1.57</v>
+      </c>
+      <c r="BM59">
+        <v>2.9</v>
+      </c>
+      <c r="BN59">
+        <v>1.34</v>
+      </c>
+      <c r="BO59">
+        <v>3.9</v>
+      </c>
+      <c r="BP59">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7806814</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45773.1875</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q60">
+        <v>2.7</v>
+      </c>
+      <c r="R60">
+        <v>2.15</v>
+      </c>
+      <c r="S60">
+        <v>3.5</v>
+      </c>
+      <c r="T60">
+        <v>1.36</v>
+      </c>
+      <c r="U60">
+        <v>2.9</v>
+      </c>
+      <c r="V60">
+        <v>2.65</v>
+      </c>
+      <c r="W60">
+        <v>1.42</v>
+      </c>
+      <c r="X60">
+        <v>6.75</v>
+      </c>
+      <c r="Y60">
+        <v>1.04</v>
+      </c>
+      <c r="Z60">
+        <v>2.17</v>
+      </c>
+      <c r="AA60">
+        <v>3.55</v>
+      </c>
+      <c r="AB60">
+        <v>3.05</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>9.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.7</v>
+      </c>
+      <c r="AG60">
+        <v>1.83</v>
+      </c>
+      <c r="AH60">
+        <v>1.91</v>
+      </c>
+      <c r="AI60">
+        <v>1.67</v>
+      </c>
+      <c r="AJ60">
+        <v>2.05</v>
+      </c>
+      <c r="AK60">
+        <v>1.35</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.65</v>
+      </c>
+      <c r="AN60">
+        <v>1.2</v>
+      </c>
+      <c r="AO60">
+        <v>0.5</v>
+      </c>
+      <c r="AP60">
+        <v>1.5</v>
+      </c>
+      <c r="AQ60">
+        <v>0.4</v>
+      </c>
+      <c r="AR60">
+        <v>1.61</v>
+      </c>
+      <c r="AS60">
+        <v>1.44</v>
+      </c>
+      <c r="AT60">
+        <v>3.05</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>7</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>11</v>
+      </c>
+      <c r="AY60">
+        <v>11</v>
+      </c>
+      <c r="AZ60">
+        <v>23</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>12</v>
+      </c>
+      <c r="BD60">
+        <v>1.79</v>
+      </c>
+      <c r="BE60">
+        <v>5.8</v>
+      </c>
+      <c r="BF60">
+        <v>2.3</v>
+      </c>
+      <c r="BG60">
+        <v>1.54</v>
+      </c>
+      <c r="BH60">
+        <v>2.28</v>
+      </c>
+      <c r="BI60">
+        <v>1.91</v>
+      </c>
+      <c r="BJ60">
+        <v>1.78</v>
+      </c>
+      <c r="BK60">
+        <v>2.43</v>
+      </c>
+      <c r="BL60">
+        <v>1.49</v>
+      </c>
+      <c r="BM60">
+        <v>3.3</v>
+      </c>
+      <c r="BN60">
+        <v>1.28</v>
+      </c>
+      <c r="BO60">
+        <v>4.4</v>
+      </c>
+      <c r="BP60">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -383,6 +383,15 @@
   </si>
   <si>
     <t>['13', '61']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['30', '90']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
   <si>
     <t>['32', '87', '90']</t>
@@ -849,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1117,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1186,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>2.67</v>
@@ -1395,7 +1404,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1726,7 +1735,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1932,7 +1941,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2138,7 +2147,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2219,7 +2228,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2344,7 +2353,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2550,7 +2559,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2756,7 +2765,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -2962,7 +2971,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3040,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3168,7 +3177,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3374,7 +3383,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3864,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.2</v>
@@ -3992,7 +4001,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4276,7 +4285,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>0.2</v>
@@ -4897,7 +4906,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5022,7 +5031,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5228,7 +5237,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5721,7 +5730,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.82</v>
@@ -5846,7 +5855,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6052,7 +6061,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6133,7 +6142,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.64</v>
@@ -6258,7 +6267,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6464,7 +6473,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6545,7 +6554,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -6748,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.2</v>
@@ -6876,7 +6885,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7082,7 +7091,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7288,7 +7297,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7572,10 +7581,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7700,7 +7709,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7778,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>1.2</v>
@@ -8190,10 +8199,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8318,7 +8327,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8524,7 +8533,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8811,7 +8820,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -9014,7 +9023,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>0.2</v>
@@ -9142,7 +9151,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9220,7 +9229,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>2.25</v>
@@ -9348,7 +9357,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9635,7 +9644,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.25</v>
@@ -10172,7 +10181,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10378,7 +10387,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10662,7 +10671,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -10996,7 +11005,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11202,7 +11211,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11283,7 +11292,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -11408,7 +11417,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11489,7 +11498,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>2.04</v>
@@ -11614,7 +11623,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11820,7 +11829,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -11898,7 +11907,7 @@
         <v>2.6</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>2.67</v>
@@ -12026,7 +12035,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12438,7 +12447,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12644,7 +12653,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12725,7 +12734,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12850,7 +12859,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13056,7 +13065,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13213,6 +13222,624 @@
       </c>
       <c r="BP60">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7806815</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45774.08333333334</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>123</v>
+      </c>
+      <c r="P61" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q61">
+        <v>3.8</v>
+      </c>
+      <c r="R61">
+        <v>2.05</v>
+      </c>
+      <c r="S61">
+        <v>2.75</v>
+      </c>
+      <c r="T61">
+        <v>1.42</v>
+      </c>
+      <c r="U61">
+        <v>2.62</v>
+      </c>
+      <c r="V61">
+        <v>2.95</v>
+      </c>
+      <c r="W61">
+        <v>1.35</v>
+      </c>
+      <c r="X61">
+        <v>7.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.07</v>
+      </c>
+      <c r="Z61">
+        <v>3.41</v>
+      </c>
+      <c r="AA61">
+        <v>3.2</v>
+      </c>
+      <c r="AB61">
+        <v>2.15</v>
+      </c>
+      <c r="AC61">
+        <v>1.06</v>
+      </c>
+      <c r="AD61">
+        <v>8.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.36</v>
+      </c>
+      <c r="AF61">
+        <v>3.1</v>
+      </c>
+      <c r="AG61">
+        <v>2</v>
+      </c>
+      <c r="AH61">
+        <v>1.65</v>
+      </c>
+      <c r="AI61">
+        <v>1.83</v>
+      </c>
+      <c r="AJ61">
+        <v>1.85</v>
+      </c>
+      <c r="AK61">
+        <v>1.67</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.3</v>
+      </c>
+      <c r="AN61">
+        <v>1.75</v>
+      </c>
+      <c r="AO61">
+        <v>1.25</v>
+      </c>
+      <c r="AP61">
+        <v>2</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.8</v>
+      </c>
+      <c r="AS61">
+        <v>1.58</v>
+      </c>
+      <c r="AT61">
+        <v>3.38</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>3</v>
+      </c>
+      <c r="AX61">
+        <v>11</v>
+      </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
+      <c r="AZ61">
+        <v>21</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>10</v>
+      </c>
+      <c r="BC61">
+        <v>13</v>
+      </c>
+      <c r="BD61">
+        <v>2.15</v>
+      </c>
+      <c r="BE61">
+        <v>6.25</v>
+      </c>
+      <c r="BF61">
+        <v>1.86</v>
+      </c>
+      <c r="BG61">
+        <v>1.48</v>
+      </c>
+      <c r="BH61">
+        <v>2.45</v>
+      </c>
+      <c r="BI61">
+        <v>1.78</v>
+      </c>
+      <c r="BJ61">
+        <v>1.91</v>
+      </c>
+      <c r="BK61">
+        <v>2.23</v>
+      </c>
+      <c r="BL61">
+        <v>1.56</v>
+      </c>
+      <c r="BM61">
+        <v>2.9</v>
+      </c>
+      <c r="BN61">
+        <v>1.34</v>
+      </c>
+      <c r="BO61">
+        <v>3.9</v>
+      </c>
+      <c r="BP61">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7806816</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45774.1875</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>124</v>
+      </c>
+      <c r="P62" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>2.2</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>1.3</v>
+      </c>
+      <c r="U62">
+        <v>3.2</v>
+      </c>
+      <c r="V62">
+        <v>2.4</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>5.4</v>
+      </c>
+      <c r="Y62">
+        <v>1.09</v>
+      </c>
+      <c r="Z62">
+        <v>2.54</v>
+      </c>
+      <c r="AA62">
+        <v>3.2</v>
+      </c>
+      <c r="AB62">
+        <v>2.66</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>10</v>
+      </c>
+      <c r="AE62">
+        <v>1.22</v>
+      </c>
+      <c r="AF62">
+        <v>4.2</v>
+      </c>
+      <c r="AG62">
+        <v>1.88</v>
+      </c>
+      <c r="AH62">
+        <v>1.84</v>
+      </c>
+      <c r="AI62">
+        <v>1.5</v>
+      </c>
+      <c r="AJ62">
+        <v>2.35</v>
+      </c>
+      <c r="AK62">
+        <v>1.5</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.48</v>
+      </c>
+      <c r="AN62">
+        <v>1.75</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>1.67</v>
+      </c>
+      <c r="AR62">
+        <v>1.73</v>
+      </c>
+      <c r="AS62">
+        <v>1.81</v>
+      </c>
+      <c r="AT62">
+        <v>3.54</v>
+      </c>
+      <c r="AU62">
+        <v>8</v>
+      </c>
+      <c r="AV62">
+        <v>8</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>9</v>
+      </c>
+      <c r="AY62">
+        <v>16</v>
+      </c>
+      <c r="AZ62">
+        <v>19</v>
+      </c>
+      <c r="BA62">
+        <v>7</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>11</v>
+      </c>
+      <c r="BD62">
+        <v>1.9</v>
+      </c>
+      <c r="BE62">
+        <v>6.25</v>
+      </c>
+      <c r="BF62">
+        <v>2.1</v>
+      </c>
+      <c r="BG62">
+        <v>1.46</v>
+      </c>
+      <c r="BH62">
+        <v>2.5</v>
+      </c>
+      <c r="BI62">
+        <v>1.76</v>
+      </c>
+      <c r="BJ62">
+        <v>1.94</v>
+      </c>
+      <c r="BK62">
+        <v>2.2</v>
+      </c>
+      <c r="BL62">
+        <v>1.57</v>
+      </c>
+      <c r="BM62">
+        <v>2.9</v>
+      </c>
+      <c r="BN62">
+        <v>1.35</v>
+      </c>
+      <c r="BO62">
+        <v>3.9</v>
+      </c>
+      <c r="BP62">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7806817</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45774.1875</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>125</v>
+      </c>
+      <c r="P63" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q63">
+        <v>2.8</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>3.8</v>
+      </c>
+      <c r="T63">
+        <v>1.45</v>
+      </c>
+      <c r="U63">
+        <v>2.55</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>7.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>2.27</v>
+      </c>
+      <c r="AA63">
+        <v>3.1</v>
+      </c>
+      <c r="AB63">
+        <v>3.26</v>
+      </c>
+      <c r="AC63">
+        <v>1.08</v>
+      </c>
+      <c r="AD63">
+        <v>7.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.4</v>
+      </c>
+      <c r="AF63">
+        <v>2.88</v>
+      </c>
+      <c r="AG63">
+        <v>2.1</v>
+      </c>
+      <c r="AH63">
+        <v>1.6</v>
+      </c>
+      <c r="AI63">
+        <v>1.85</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.3</v>
+      </c>
+      <c r="AL63">
+        <v>1.3</v>
+      </c>
+      <c r="AM63">
+        <v>1.65</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1.2</v>
+      </c>
+      <c r="AP63">
+        <v>1.4</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1.45</v>
+      </c>
+      <c r="AS63">
+        <v>1.04</v>
+      </c>
+      <c r="AT63">
+        <v>2.49</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
+      <c r="AY63">
+        <v>11</v>
+      </c>
+      <c r="AZ63">
+        <v>3</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>3</v>
+      </c>
+      <c r="BC63">
+        <v>7</v>
+      </c>
+      <c r="BD63">
+        <v>1.81</v>
+      </c>
+      <c r="BE63">
+        <v>6.1</v>
+      </c>
+      <c r="BF63">
+        <v>2.23</v>
+      </c>
+      <c r="BG63">
+        <v>1.57</v>
+      </c>
+      <c r="BH63">
+        <v>2.23</v>
+      </c>
+      <c r="BI63">
+        <v>1.95</v>
+      </c>
+      <c r="BJ63">
+        <v>1.75</v>
+      </c>
+      <c r="BK63">
+        <v>2.5</v>
+      </c>
+      <c r="BL63">
+        <v>1.46</v>
+      </c>
+      <c r="BM63">
+        <v>3.4</v>
+      </c>
+      <c r="BN63">
+        <v>1.26</v>
+      </c>
+      <c r="BO63">
+        <v>4.6</v>
+      </c>
+      <c r="BP63">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,15 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['18', '77', '90+4']</t>
+  </si>
+  <si>
+    <t>['37', '80']</t>
+  </si>
+  <si>
+    <t>['2', '45+1', '90+9']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -497,6 +506,12 @@
   </si>
   <si>
     <t>['65', '90+6']</t>
+  </si>
+  <si>
+    <t>['73', '90+6']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1132,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1195,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>2.67</v>
@@ -1610,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1735,7 +1750,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1813,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1941,7 +1956,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2022,7 +2037,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2147,7 +2162,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2225,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2353,7 +2368,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2434,7 +2449,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>1.38</v>
@@ -2559,7 +2574,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2637,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>1.95</v>
@@ -2765,7 +2780,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -2843,10 +2858,10 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2971,7 +2986,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3049,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>1.67</v>
@@ -3177,7 +3192,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3258,7 +3273,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>1.8</v>
@@ -3383,7 +3398,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3461,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3667,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR14">
         <v>2.51</v>
@@ -3873,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>0.2</v>
@@ -4001,7 +4016,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4082,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.8</v>
@@ -4285,10 +4300,10 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>1.3</v>
@@ -4491,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR18">
         <v>2.13</v>
@@ -4697,10 +4712,10 @@
         <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>1.46</v>
@@ -5031,7 +5046,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5109,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>2.67</v>
@@ -5237,7 +5252,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5318,7 +5333,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5521,10 +5536,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>2.19</v>
@@ -5855,7 +5870,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6061,7 +6076,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6139,7 +6154,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6267,7 +6282,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6345,10 +6360,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>2.02</v>
@@ -6473,7 +6488,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6760,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6885,7 +6900,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7091,7 +7106,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7297,7 +7312,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7375,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>0.2</v>
@@ -7581,7 +7596,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7709,7 +7724,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7787,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.58</v>
@@ -7996,7 +8011,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ35">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8327,7 +8342,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8408,7 +8423,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR37">
         <v>1.26</v>
@@ -8533,7 +8548,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8611,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38">
         <v>2.67</v>
@@ -8817,7 +8832,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9151,7 +9166,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9229,10 +9244,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR41">
         <v>1.54</v>
@@ -9357,7 +9372,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9850,7 +9865,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>1.71</v>
@@ -10181,7 +10196,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10262,7 +10277,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10387,7 +10402,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10465,7 +10480,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
         <v>2.67</v>
@@ -10671,10 +10686,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.68</v>
@@ -10877,10 +10892,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11005,7 +11020,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11086,7 +11101,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR50">
         <v>1.68</v>
@@ -11211,7 +11226,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11289,7 +11304,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -11417,7 +11432,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11495,7 +11510,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11623,7 +11638,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11704,7 +11719,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -11829,7 +11844,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12035,7 +12050,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12113,10 +12128,10 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12447,7 +12462,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12653,7 +12668,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12859,7 +12874,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12940,7 +12955,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR59">
         <v>1.49</v>
@@ -13065,7 +13080,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13146,7 +13161,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR60">
         <v>1.61</v>
@@ -13349,7 +13364,7 @@
         <v>1.25</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13761,7 +13776,7 @@
         <v>1.2</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -13840,6 +13855,1242 @@
       </c>
       <c r="BP63">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7806818</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45779.3125</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>126</v>
+      </c>
+      <c r="P64" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q64">
+        <v>2.63</v>
+      </c>
+      <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
+        <v>4.5</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.63</v>
+      </c>
+      <c r="V64">
+        <v>3.25</v>
+      </c>
+      <c r="W64">
+        <v>1.33</v>
+      </c>
+      <c r="X64">
+        <v>9</v>
+      </c>
+      <c r="Y64">
+        <v>1.07</v>
+      </c>
+      <c r="Z64">
+        <v>1.91</v>
+      </c>
+      <c r="AA64">
+        <v>3.34</v>
+      </c>
+      <c r="AB64">
+        <v>4</v>
+      </c>
+      <c r="AC64">
+        <v>1.07</v>
+      </c>
+      <c r="AD64">
+        <v>8</v>
+      </c>
+      <c r="AE64">
+        <v>1.38</v>
+      </c>
+      <c r="AF64">
+        <v>3</v>
+      </c>
+      <c r="AG64">
+        <v>2.05</v>
+      </c>
+      <c r="AH64">
+        <v>1.61</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.8</v>
+      </c>
+      <c r="AK64">
+        <v>1.27</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.77</v>
+      </c>
+      <c r="AN64">
+        <v>1.17</v>
+      </c>
+      <c r="AO64">
+        <v>1.2</v>
+      </c>
+      <c r="AP64">
+        <v>1.43</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>2.07</v>
+      </c>
+      <c r="AS64">
+        <v>1.12</v>
+      </c>
+      <c r="AT64">
+        <v>3.19</v>
+      </c>
+      <c r="AU64">
+        <v>10</v>
+      </c>
+      <c r="AV64">
+        <v>2</v>
+      </c>
+      <c r="AW64">
+        <v>2</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>2</v>
+      </c>
+      <c r="BC64">
+        <v>6</v>
+      </c>
+      <c r="BD64">
+        <v>1.59</v>
+      </c>
+      <c r="BE64">
+        <v>8</v>
+      </c>
+      <c r="BF64">
+        <v>2.9</v>
+      </c>
+      <c r="BG64">
+        <v>1.51</v>
+      </c>
+      <c r="BH64">
+        <v>2.39</v>
+      </c>
+      <c r="BI64">
+        <v>1.85</v>
+      </c>
+      <c r="BJ64">
+        <v>1.85</v>
+      </c>
+      <c r="BK64">
+        <v>2.4</v>
+      </c>
+      <c r="BL64">
+        <v>1.53</v>
+      </c>
+      <c r="BM64">
+        <v>3.2</v>
+      </c>
+      <c r="BN64">
+        <v>1.3</v>
+      </c>
+      <c r="BO64">
+        <v>4.25</v>
+      </c>
+      <c r="BP64">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7806819</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45779.3125</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>105</v>
+      </c>
+      <c r="P65" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q65">
+        <v>3.4</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>2.43</v>
+      </c>
+      <c r="AA65">
+        <v>3.55</v>
+      </c>
+      <c r="AB65">
+        <v>2.65</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>9.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.28</v>
+      </c>
+      <c r="AF65">
+        <v>3.6</v>
+      </c>
+      <c r="AG65">
+        <v>1.77</v>
+      </c>
+      <c r="AH65">
+        <v>1.98</v>
+      </c>
+      <c r="AI65">
+        <v>1.67</v>
+      </c>
+      <c r="AJ65">
+        <v>2.1</v>
+      </c>
+      <c r="AK65">
+        <v>1.53</v>
+      </c>
+      <c r="AL65">
+        <v>1.3</v>
+      </c>
+      <c r="AM65">
+        <v>1.42</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>1.4</v>
+      </c>
+      <c r="AP65">
+        <v>1.67</v>
+      </c>
+      <c r="AQ65">
+        <v>1.67</v>
+      </c>
+      <c r="AR65">
+        <v>1.65</v>
+      </c>
+      <c r="AS65">
+        <v>1.49</v>
+      </c>
+      <c r="AT65">
+        <v>3.14</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>9</v>
+      </c>
+      <c r="AZ65">
+        <v>14</v>
+      </c>
+      <c r="BA65">
+        <v>5</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>2.1</v>
+      </c>
+      <c r="BE65">
+        <v>7.5</v>
+      </c>
+      <c r="BF65">
+        <v>1.95</v>
+      </c>
+      <c r="BG65">
+        <v>1.61</v>
+      </c>
+      <c r="BH65">
+        <v>2.23</v>
+      </c>
+      <c r="BI65">
+        <v>1.95</v>
+      </c>
+      <c r="BJ65">
+        <v>1.77</v>
+      </c>
+      <c r="BK65">
+        <v>2.58</v>
+      </c>
+      <c r="BL65">
+        <v>1.44</v>
+      </c>
+      <c r="BM65">
+        <v>3.48</v>
+      </c>
+      <c r="BN65">
+        <v>1.24</v>
+      </c>
+      <c r="BO65">
+        <v>4.8</v>
+      </c>
+      <c r="BP65">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7806820</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45780.1875</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>127</v>
+      </c>
+      <c r="P66" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q66">
+        <v>2.5</v>
+      </c>
+      <c r="R66">
+        <v>2.2</v>
+      </c>
+      <c r="S66">
+        <v>4.75</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.75</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>1.36</v>
+      </c>
+      <c r="X66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>1.78</v>
+      </c>
+      <c r="AA66">
+        <v>3.7</v>
+      </c>
+      <c r="AB66">
+        <v>4.2</v>
+      </c>
+      <c r="AC66">
+        <v>1.06</v>
+      </c>
+      <c r="AD66">
+        <v>8.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.35</v>
+      </c>
+      <c r="AF66">
+        <v>3.1</v>
+      </c>
+      <c r="AG66">
+        <v>1.91</v>
+      </c>
+      <c r="AH66">
+        <v>1.83</v>
+      </c>
+      <c r="AI66">
+        <v>1.83</v>
+      </c>
+      <c r="AJ66">
+        <v>1.83</v>
+      </c>
+      <c r="AK66">
+        <v>1.23</v>
+      </c>
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
+        <v>1.9</v>
+      </c>
+      <c r="AN66">
+        <v>1.4</v>
+      </c>
+      <c r="AO66">
+        <v>1.2</v>
+      </c>
+      <c r="AP66">
+        <v>1.67</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1.46</v>
+      </c>
+      <c r="AS66">
+        <v>1.15</v>
+      </c>
+      <c r="AT66">
+        <v>2.61</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>8</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>9</v>
+      </c>
+      <c r="AY66">
+        <v>12</v>
+      </c>
+      <c r="AZ66">
+        <v>21</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>7</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>2</v>
+      </c>
+      <c r="BJ66">
+        <v>1.8</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7806821</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45780.1875</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>128</v>
+      </c>
+      <c r="P67" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q67">
+        <v>3.1</v>
+      </c>
+      <c r="R67">
+        <v>2.2</v>
+      </c>
+      <c r="S67">
+        <v>3.4</v>
+      </c>
+      <c r="T67">
+        <v>1.4</v>
+      </c>
+      <c r="U67">
+        <v>2.75</v>
+      </c>
+      <c r="V67">
+        <v>2.75</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>2.47</v>
+      </c>
+      <c r="AA67">
+        <v>3.29</v>
+      </c>
+      <c r="AB67">
+        <v>2.77</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>9</v>
+      </c>
+      <c r="AE67">
+        <v>1.3</v>
+      </c>
+      <c r="AF67">
+        <v>3.45</v>
+      </c>
+      <c r="AG67">
+        <v>1.94</v>
+      </c>
+      <c r="AH67">
+        <v>1.8</v>
+      </c>
+      <c r="AI67">
+        <v>1.73</v>
+      </c>
+      <c r="AJ67">
+        <v>2</v>
+      </c>
+      <c r="AK67">
+        <v>1.41</v>
+      </c>
+      <c r="AL67">
+        <v>1.31</v>
+      </c>
+      <c r="AM67">
+        <v>1.52</v>
+      </c>
+      <c r="AN67">
+        <v>1.2</v>
+      </c>
+      <c r="AO67">
+        <v>0.4</v>
+      </c>
+      <c r="AP67">
+        <v>1.5</v>
+      </c>
+      <c r="AQ67">
+        <v>0.33</v>
+      </c>
+      <c r="AR67">
+        <v>2.01</v>
+      </c>
+      <c r="AS67">
+        <v>1.61</v>
+      </c>
+      <c r="AT67">
+        <v>3.62</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>8</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>9</v>
+      </c>
+      <c r="AY67">
+        <v>15</v>
+      </c>
+      <c r="AZ67">
+        <v>20</v>
+      </c>
+      <c r="BA67">
+        <v>2</v>
+      </c>
+      <c r="BB67">
+        <v>6</v>
+      </c>
+      <c r="BC67">
+        <v>8</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7806822</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45780.29166666666</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q68">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>2.1</v>
+      </c>
+      <c r="S68">
+        <v>3.75</v>
+      </c>
+      <c r="T68">
+        <v>1.44</v>
+      </c>
+      <c r="U68">
+        <v>2.63</v>
+      </c>
+      <c r="V68">
+        <v>3.25</v>
+      </c>
+      <c r="W68">
+        <v>1.33</v>
+      </c>
+      <c r="X68">
+        <v>9</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>2.01</v>
+      </c>
+      <c r="AA68">
+        <v>3.66</v>
+      </c>
+      <c r="AB68">
+        <v>3.34</v>
+      </c>
+      <c r="AC68">
+        <v>1.06</v>
+      </c>
+      <c r="AD68">
+        <v>8.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.38</v>
+      </c>
+      <c r="AF68">
+        <v>3</v>
+      </c>
+      <c r="AG68">
+        <v>1.82</v>
+      </c>
+      <c r="AH68">
+        <v>1.92</v>
+      </c>
+      <c r="AI68">
+        <v>1.83</v>
+      </c>
+      <c r="AJ68">
+        <v>1.83</v>
+      </c>
+      <c r="AK68">
+        <v>1.34</v>
+      </c>
+      <c r="AL68">
+        <v>1.31</v>
+      </c>
+      <c r="AM68">
+        <v>1.62</v>
+      </c>
+      <c r="AN68">
+        <v>1.6</v>
+      </c>
+      <c r="AO68">
+        <v>2.25</v>
+      </c>
+      <c r="AP68">
+        <v>1.33</v>
+      </c>
+      <c r="AQ68">
+        <v>2.4</v>
+      </c>
+      <c r="AR68">
+        <v>1.47</v>
+      </c>
+      <c r="AS68">
+        <v>1.22</v>
+      </c>
+      <c r="AT68">
+        <v>2.69</v>
+      </c>
+      <c r="AU68">
+        <v>6</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>11</v>
+      </c>
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
+        <v>17</v>
+      </c>
+      <c r="AZ68">
+        <v>4</v>
+      </c>
+      <c r="BA68">
+        <v>10</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>13</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>1.82</v>
+      </c>
+      <c r="BJ68">
+        <v>1.98</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7806823</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45780.29166666666</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P69" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>3.75</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>9</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>2.01</v>
+      </c>
+      <c r="AA69">
+        <v>3.53</v>
+      </c>
+      <c r="AB69">
+        <v>3.45</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>8.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.35</v>
+      </c>
+      <c r="AF69">
+        <v>3.1</v>
+      </c>
+      <c r="AG69">
+        <v>1.95</v>
+      </c>
+      <c r="AH69">
+        <v>1.79</v>
+      </c>
+      <c r="AI69">
+        <v>1.83</v>
+      </c>
+      <c r="AJ69">
+        <v>1.83</v>
+      </c>
+      <c r="AK69">
+        <v>1.38</v>
+      </c>
+      <c r="AL69">
+        <v>1.31</v>
+      </c>
+      <c r="AM69">
+        <v>1.57</v>
+      </c>
+      <c r="AN69">
+        <v>1.75</v>
+      </c>
+      <c r="AO69">
+        <v>0.2</v>
+      </c>
+      <c r="AP69">
+        <v>1.6</v>
+      </c>
+      <c r="AQ69">
+        <v>0.33</v>
+      </c>
+      <c r="AR69">
+        <v>1.43</v>
+      </c>
+      <c r="AS69">
+        <v>1.23</v>
+      </c>
+      <c r="AT69">
+        <v>2.66</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>11</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>19</v>
+      </c>
+      <c r="AZ69">
+        <v>18</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>7</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>1.88</v>
+      </c>
+      <c r="BJ69">
+        <v>1.92</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="AY68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ68">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,15 @@
     <t>['2', '45+1', '90+9']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['11', '77']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -430,9 +439,6 @@
     <t>['14', '64']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['7', '10']</t>
   </si>
   <si>
@@ -512,6 +518,15 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['7', '46', '78']</t>
+  </si>
+  <si>
+    <t>['82']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1147,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1213,7 +1228,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1416,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1622,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ4">
         <v>0.33</v>
@@ -1750,7 +1765,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1828,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1956,7 +1971,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2034,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2162,7 +2177,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2243,7 +2258,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2368,7 +2383,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2446,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR8">
         <v>1.38</v>
@@ -2574,7 +2589,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2780,7 +2795,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -2986,7 +3001,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3192,7 +3207,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3270,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3398,7 +3413,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3682,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14">
         <v>2.4</v>
@@ -3891,7 +3906,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR15">
         <v>1.87</v>
@@ -4016,7 +4031,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4094,7 +4109,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4715,7 +4730,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>1.46</v>
@@ -4918,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5046,7 +5061,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5127,7 +5142,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR21">
         <v>1.94</v>
@@ -5252,7 +5267,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5330,10 +5345,10 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5536,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -5742,10 +5757,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.82</v>
@@ -5870,7 +5885,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5948,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR25">
         <v>1.2</v>
@@ -6076,7 +6091,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6282,7 +6297,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6488,7 +6503,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6566,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -6900,7 +6915,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -6978,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7106,7 +7121,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7184,7 +7199,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7312,7 +7327,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7393,7 +7408,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR32">
         <v>0.86</v>
@@ -7724,7 +7739,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8008,7 +8023,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
@@ -8217,7 +8232,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8342,7 +8357,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8420,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ37">
         <v>2.4</v>
@@ -8548,7 +8563,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8626,10 +8641,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR38">
         <v>2.21</v>
@@ -8832,7 +8847,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9041,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -9166,7 +9181,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9372,7 +9387,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9450,7 +9465,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9656,10 +9671,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>1.25</v>
@@ -9862,7 +9877,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10068,10 +10083,10 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ45">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR45">
         <v>1.77</v>
@@ -10196,7 +10211,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10274,10 +10289,10 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10402,7 +10417,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10483,7 +10498,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR47">
         <v>0.99</v>
@@ -11020,7 +11035,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11098,7 +11113,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50">
         <v>0.33</v>
@@ -11226,7 +11241,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11432,7 +11447,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11510,10 +11525,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>2.04</v>
@@ -11638,7 +11653,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11716,7 +11731,7 @@
         <v>0.25</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ53">
         <v>0.33</v>
@@ -11844,7 +11859,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -11925,7 +11940,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR54">
         <v>1.88</v>
@@ -12050,7 +12065,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12334,7 +12349,7 @@
         <v>1.25</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12462,7 +12477,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12540,10 +12555,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR57">
         <v>1.63</v>
@@ -12668,7 +12683,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12746,7 +12761,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
         <v>1.67</v>
@@ -12874,7 +12889,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12952,7 +12967,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>2.4</v>
@@ -13080,7 +13095,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13158,7 +13173,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60">
         <v>0.33</v>
@@ -13779,7 +13794,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.45</v>
@@ -13982,7 +13997,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14110,7 +14125,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14191,7 +14206,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -14316,7 +14331,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14522,7 +14537,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14728,7 +14743,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15090,6 +15105,1242 @@
         <v>0</v>
       </c>
       <c r="BP69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7806825</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45782.1875</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>116</v>
+      </c>
+      <c r="P70" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q70">
+        <v>2.38</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>5</v>
+      </c>
+      <c r="T70">
+        <v>1.4</v>
+      </c>
+      <c r="U70">
+        <v>2.75</v>
+      </c>
+      <c r="V70">
+        <v>2.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>8</v>
+      </c>
+      <c r="Y70">
+        <v>1.08</v>
+      </c>
+      <c r="Z70">
+        <v>1.72</v>
+      </c>
+      <c r="AA70">
+        <v>3.5</v>
+      </c>
+      <c r="AB70">
+        <v>4.33</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>1.91</v>
+      </c>
+      <c r="AH70">
+        <v>1.79</v>
+      </c>
+      <c r="AI70">
+        <v>1.83</v>
+      </c>
+      <c r="AJ70">
+        <v>1.83</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1.43</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1.38</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>2.06</v>
+      </c>
+      <c r="AS70">
+        <v>1.57</v>
+      </c>
+      <c r="AT70">
+        <v>3.63</v>
+      </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>19</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>6</v>
+      </c>
+      <c r="BB70">
+        <v>7</v>
+      </c>
+      <c r="BC70">
+        <v>13</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7806824</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45782.1875</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s">
+        <v>81</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>129</v>
+      </c>
+      <c r="P71" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q71">
+        <v>3.4</v>
+      </c>
+      <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>3.4</v>
+      </c>
+      <c r="T71">
+        <v>1.44</v>
+      </c>
+      <c r="U71">
+        <v>2.63</v>
+      </c>
+      <c r="V71">
+        <v>3.25</v>
+      </c>
+      <c r="W71">
+        <v>1.33</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
+        <v>2.63</v>
+      </c>
+      <c r="AA71">
+        <v>2.99</v>
+      </c>
+      <c r="AB71">
+        <v>2.59</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>1.91</v>
+      </c>
+      <c r="AH71">
+        <v>1.73</v>
+      </c>
+      <c r="AI71">
+        <v>1.83</v>
+      </c>
+      <c r="AJ71">
+        <v>1.83</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>1.67</v>
+      </c>
+      <c r="AP71">
+        <v>2.17</v>
+      </c>
+      <c r="AQ71">
+        <v>1.43</v>
+      </c>
+      <c r="AR71">
+        <v>1.66</v>
+      </c>
+      <c r="AS71">
+        <v>1.51</v>
+      </c>
+      <c r="AT71">
+        <v>3.17</v>
+      </c>
+      <c r="AU71">
+        <v>2</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>2</v>
+      </c>
+      <c r="AX71">
+        <v>9</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>18</v>
+      </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+      <c r="BB71">
+        <v>13</v>
+      </c>
+      <c r="BC71">
+        <v>14</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7806826</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45783.08333333334</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>93</v>
+      </c>
+      <c r="P72" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q72">
+        <v>2.75</v>
+      </c>
+      <c r="R72">
+        <v>2.1</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>1.44</v>
+      </c>
+      <c r="U72">
+        <v>2.63</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>1.36</v>
+      </c>
+      <c r="X72">
+        <v>9</v>
+      </c>
+      <c r="Y72">
+        <v>1.07</v>
+      </c>
+      <c r="Z72">
+        <v>2.03</v>
+      </c>
+      <c r="AA72">
+        <v>3.21</v>
+      </c>
+      <c r="AB72">
+        <v>3.18</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1.96</v>
+      </c>
+      <c r="AH72">
+        <v>1.74</v>
+      </c>
+      <c r="AI72">
+        <v>1.83</v>
+      </c>
+      <c r="AJ72">
+        <v>1.83</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1.5</v>
+      </c>
+      <c r="AO72">
+        <v>2.67</v>
+      </c>
+      <c r="AP72">
+        <v>1.43</v>
+      </c>
+      <c r="AQ72">
+        <v>2.43</v>
+      </c>
+      <c r="AR72">
+        <v>1.66</v>
+      </c>
+      <c r="AS72">
+        <v>1.27</v>
+      </c>
+      <c r="AT72">
+        <v>2.93</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>1</v>
+      </c>
+      <c r="AY72">
+        <v>16</v>
+      </c>
+      <c r="AZ72">
+        <v>7</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>7</v>
+      </c>
+      <c r="BC72">
+        <v>14</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7806827</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45783.1875</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>2.05</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>1.44</v>
+      </c>
+      <c r="U73">
+        <v>2.63</v>
+      </c>
+      <c r="V73">
+        <v>3.25</v>
+      </c>
+      <c r="W73">
+        <v>1.33</v>
+      </c>
+      <c r="X73">
+        <v>9</v>
+      </c>
+      <c r="Y73">
+        <v>1.07</v>
+      </c>
+      <c r="Z73">
+        <v>2.14</v>
+      </c>
+      <c r="AA73">
+        <v>3.05</v>
+      </c>
+      <c r="AB73">
+        <v>3.09</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>2.1</v>
+      </c>
+      <c r="AH73">
+        <v>1.6</v>
+      </c>
+      <c r="AI73">
+        <v>1.83</v>
+      </c>
+      <c r="AJ73">
+        <v>1.83</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1.8</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AP73">
+        <v>1.5</v>
+      </c>
+      <c r="AQ73">
+        <v>1.29</v>
+      </c>
+      <c r="AR73">
+        <v>1.33</v>
+      </c>
+      <c r="AS73">
+        <v>0.95</v>
+      </c>
+      <c r="AT73">
+        <v>2.28</v>
+      </c>
+      <c r="AU73">
+        <v>7</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>13</v>
+      </c>
+      <c r="AX73">
+        <v>1</v>
+      </c>
+      <c r="AY73">
+        <v>25</v>
+      </c>
+      <c r="AZ73">
+        <v>6</v>
+      </c>
+      <c r="BA73">
+        <v>8</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>10</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7806828</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45783.29166666666</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>130</v>
+      </c>
+      <c r="P74" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>2.1</v>
+      </c>
+      <c r="S74">
+        <v>2.5</v>
+      </c>
+      <c r="T74">
+        <v>1.44</v>
+      </c>
+      <c r="U74">
+        <v>2.63</v>
+      </c>
+      <c r="V74">
+        <v>3.25</v>
+      </c>
+      <c r="W74">
+        <v>1.33</v>
+      </c>
+      <c r="X74">
+        <v>9</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>4.6</v>
+      </c>
+      <c r="AA74">
+        <v>3.32</v>
+      </c>
+      <c r="AB74">
+        <v>1.67</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1.5</v>
+      </c>
+      <c r="AF74">
+        <v>2.4</v>
+      </c>
+      <c r="AG74">
+        <v>2</v>
+      </c>
+      <c r="AH74">
+        <v>1.67</v>
+      </c>
+      <c r="AI74">
+        <v>2</v>
+      </c>
+      <c r="AJ74">
+        <v>1.73</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1.5</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1.43</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.59</v>
+      </c>
+      <c r="AS74">
+        <v>1.66</v>
+      </c>
+      <c r="AT74">
+        <v>3.25</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>12</v>
+      </c>
+      <c r="AY74">
+        <v>8</v>
+      </c>
+      <c r="AZ74">
+        <v>21</v>
+      </c>
+      <c r="BA74">
+        <v>2</v>
+      </c>
+      <c r="BB74">
+        <v>7</v>
+      </c>
+      <c r="BC74">
+        <v>9</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7806829</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45783.29166666666</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>131</v>
+      </c>
+      <c r="P75" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q75">
+        <v>2.88</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>3.6</v>
+      </c>
+      <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>2.75</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>8</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>2.2</v>
+      </c>
+      <c r="AA75">
+        <v>3.15</v>
+      </c>
+      <c r="AB75">
+        <v>2.88</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>1.87</v>
+      </c>
+      <c r="AH75">
+        <v>1.83</v>
+      </c>
+      <c r="AI75">
+        <v>1.73</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1.2</v>
+      </c>
+      <c r="AO75">
+        <v>0.2</v>
+      </c>
+      <c r="AP75">
+        <v>1.5</v>
+      </c>
+      <c r="AQ75">
+        <v>0.17</v>
+      </c>
+      <c r="AR75">
+        <v>1.55</v>
+      </c>
+      <c r="AS75">
+        <v>1.36</v>
+      </c>
+      <c r="AT75">
+        <v>2.91</v>
+      </c>
+      <c r="AU75">
+        <v>7</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>7</v>
+      </c>
+      <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
+        <v>17</v>
+      </c>
+      <c r="AZ75">
+        <v>15</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>6</v>
+      </c>
+      <c r="BC75">
+        <v>12</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>['11', '77']</t>
+  </si>
+  <si>
+    <t>['42', '46']</t>
   </si>
   <si>
     <t>['32', '87', '90']</t>
@@ -888,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1150,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1225,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ2">
         <v>2.43</v>
@@ -1640,7 +1643,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ4">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1765,7 +1768,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1971,7 +1974,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2177,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2383,7 +2386,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2589,7 +2592,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2670,7 +2673,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR9">
         <v>1.95</v>
@@ -2795,7 +2798,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -3001,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3207,7 +3210,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3413,7 +3416,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3903,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ15">
         <v>0.17</v>
@@ -4318,7 +4321,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR17">
         <v>1.3</v>
@@ -5061,7 +5064,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5267,7 +5270,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5885,7 +5888,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6091,7 +6094,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6297,7 +6300,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6503,7 +6506,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6915,7 +6918,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7121,7 +7124,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7327,7 +7330,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7611,7 +7614,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7739,7 +7742,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8026,7 +8029,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8357,7 +8360,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8563,7 +8566,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9181,7 +9184,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9387,7 +9390,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10211,7 +10214,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10417,7 +10420,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10701,7 +10704,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11035,7 +11038,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11241,7 +11244,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11447,7 +11450,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11653,7 +11656,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11734,7 +11737,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ53">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -11859,7 +11862,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12065,7 +12068,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12477,7 +12480,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12683,7 +12686,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12889,7 +12892,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13095,7 +13098,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13379,7 +13382,7 @@
         <v>1.25</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -14125,7 +14128,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14203,7 +14206,7 @@
         <v>1.4</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ65">
         <v>1.43</v>
@@ -14331,7 +14334,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14537,7 +14540,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14743,7 +14746,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15030,7 +15033,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ69">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15155,7 +15158,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15567,7 +15570,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -15773,7 +15776,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15979,7 +15982,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16185,7 +16188,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16341,6 +16344,212 @@
         <v>0</v>
       </c>
       <c r="BP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7806830</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45787.1875</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" t="s">
+        <v>79</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>132</v>
+      </c>
+      <c r="P76" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q76">
+        <v>2.75</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>4</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>1.78</v>
+      </c>
+      <c r="AA76">
+        <v>3.53</v>
+      </c>
+      <c r="AB76">
+        <v>3.62</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>1.79</v>
+      </c>
+      <c r="AH76">
+        <v>1.91</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
+        <v>1.91</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1.67</v>
+      </c>
+      <c r="AO76">
+        <v>0.33</v>
+      </c>
+      <c r="AP76">
+        <v>1.86</v>
+      </c>
+      <c r="AQ76">
+        <v>0.29</v>
+      </c>
+      <c r="AR76">
+        <v>1.63</v>
+      </c>
+      <c r="AS76">
+        <v>1.3</v>
+      </c>
+      <c r="AT76">
+        <v>2.93</v>
+      </c>
+      <c r="AU76">
+        <v>-1</v>
+      </c>
+      <c r="AV76">
+        <v>-1</v>
+      </c>
+      <c r="AW76">
+        <v>-1</v>
+      </c>
+      <c r="AX76">
+        <v>-1</v>
+      </c>
+      <c r="AY76">
+        <v>-1</v>
+      </c>
+      <c r="AZ76">
+        <v>-1</v>
+      </c>
+      <c r="BA76">
+        <v>-1</v>
+      </c>
+      <c r="BB76">
+        <v>-1</v>
+      </c>
+      <c r="BC76">
+        <v>-1</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -16487,31 +16487,31 @@
         <v>2.93</v>
       </c>
       <c r="AU76">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV76">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW76">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX76">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY76">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ76">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA76">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB76">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC76">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD76">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,9 @@
     <t>['42', '46']</t>
   </si>
   <si>
+    <t>['61', '90+2']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -530,6 +533,9 @@
   </si>
   <si>
     <t>['82']</t>
+  </si>
+  <si>
+    <t>['6', '87']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1156,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1768,7 +1774,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1974,7 +1980,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2180,7 +2186,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2386,7 +2392,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2592,7 +2598,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2798,7 +2804,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -3004,7 +3010,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3082,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11">
         <v>1.67</v>
@@ -3210,7 +3216,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3416,7 +3422,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3909,7 +3915,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ15">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR15">
         <v>1.87</v>
@@ -4318,7 +4324,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ17">
         <v>0.29</v>
@@ -5064,7 +5070,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5270,7 +5276,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5348,7 +5354,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
         <v>1.43</v>
@@ -5888,7 +5894,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6094,7 +6100,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6300,7 +6306,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6506,7 +6512,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6918,7 +6924,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7124,7 +7130,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7330,7 +7336,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7411,7 +7417,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR32">
         <v>0.86</v>
@@ -7742,7 +7748,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7820,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8360,7 +8366,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8438,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>2.4</v>
@@ -8566,7 +8572,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9059,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -9184,7 +9190,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9262,7 +9268,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ41">
         <v>2.4</v>
@@ -9390,7 +9396,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9674,7 +9680,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -10089,7 +10095,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ45">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR45">
         <v>1.77</v>
@@ -10214,7 +10220,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10420,7 +10426,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11038,7 +11044,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11244,7 +11250,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11450,7 +11456,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11656,7 +11662,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11734,7 +11740,7 @@
         <v>0.25</v>
       </c>
       <c r="AP53">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53">
         <v>0.29</v>
@@ -11862,7 +11868,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12068,7 +12074,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12480,7 +12486,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12561,7 +12567,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR57">
         <v>1.63</v>
@@ -12686,7 +12692,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12764,7 +12770,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
         <v>1.67</v>
@@ -12892,7 +12898,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13098,7 +13104,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13176,7 +13182,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
         <v>0.33</v>
@@ -13794,7 +13800,7 @@
         <v>1.2</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
         <v>1.29</v>
@@ -14128,7 +14134,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14334,7 +14340,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14412,7 +14418,7 @@
         <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14540,7 +14546,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14746,7 +14752,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15158,7 +15164,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15570,7 +15576,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -15776,7 +15782,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15982,7 +15988,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16060,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16188,7 +16194,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16269,7 +16275,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR75">
         <v>1.55</v>
@@ -16550,6 +16556,418 @@
         <v>0</v>
       </c>
       <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7806832</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45787.29166666666</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>133</v>
+      </c>
+      <c r="P77" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>3.6</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>2.75</v>
+      </c>
+      <c r="W77">
+        <v>1.4</v>
+      </c>
+      <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>2.23</v>
+      </c>
+      <c r="AA77">
+        <v>3.33</v>
+      </c>
+      <c r="AB77">
+        <v>2.7</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>1.81</v>
+      </c>
+      <c r="AH77">
+        <v>1.89</v>
+      </c>
+      <c r="AI77">
+        <v>1.73</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1.43</v>
+      </c>
+      <c r="AO77">
+        <v>0.17</v>
+      </c>
+      <c r="AP77">
+        <v>1.38</v>
+      </c>
+      <c r="AQ77">
+        <v>0.29</v>
+      </c>
+      <c r="AR77">
+        <v>1.51</v>
+      </c>
+      <c r="AS77">
+        <v>1.39</v>
+      </c>
+      <c r="AT77">
+        <v>2.9</v>
+      </c>
+      <c r="AU77">
+        <v>4</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>10</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>15</v>
+      </c>
+      <c r="AZ77">
+        <v>10</v>
+      </c>
+      <c r="BA77">
+        <v>10</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>14</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7806831</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45787.29166666666</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>82</v>
+      </c>
+      <c r="P78" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q78">
+        <v>3.75</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>3.1</v>
+      </c>
+      <c r="T78">
+        <v>1.44</v>
+      </c>
+      <c r="U78">
+        <v>2.63</v>
+      </c>
+      <c r="V78">
+        <v>3.25</v>
+      </c>
+      <c r="W78">
+        <v>1.33</v>
+      </c>
+      <c r="X78">
+        <v>10</v>
+      </c>
+      <c r="Y78">
+        <v>1.06</v>
+      </c>
+      <c r="Z78">
+        <v>2.4</v>
+      </c>
+      <c r="AA78">
+        <v>3.23</v>
+      </c>
+      <c r="AB78">
+        <v>2.54</v>
+      </c>
+      <c r="AC78">
+        <v>2.51</v>
+      </c>
+      <c r="AD78">
+        <v>1.54</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>1.95</v>
+      </c>
+      <c r="AH78">
+        <v>1.75</v>
+      </c>
+      <c r="AI78">
+        <v>1.91</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1.67</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.57</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1.46</v>
+      </c>
+      <c r="AS78">
+        <v>1.67</v>
+      </c>
+      <c r="AT78">
+        <v>3.13</v>
+      </c>
+      <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
+        <v>7</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>14</v>
+      </c>
+      <c r="AY78">
+        <v>2</v>
+      </c>
+      <c r="AZ78">
+        <v>30</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>11</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['61', '90+2']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -473,9 +476,6 @@
   </si>
   <si>
     <t>['34']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['4', '13', '64']</t>
@@ -536,6 +536,15 @@
   </si>
   <si>
     <t>['6', '87']</t>
+  </si>
+  <si>
+    <t>['5', '65']</t>
+  </si>
+  <si>
+    <t>['6', '37', '56', '87']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1165,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1440,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1646,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
         <v>0.29</v>
@@ -1774,7 +1783,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1980,7 +1989,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2061,7 +2070,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2186,7 +2195,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2392,7 +2401,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2470,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR8">
         <v>1.38</v>
@@ -2598,7 +2607,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2804,7 +2813,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -3010,7 +3019,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3091,7 +3100,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3216,7 +3225,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3422,7 +3431,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3500,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3709,7 +3718,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR14">
         <v>2.51</v>
@@ -4118,7 +4127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4530,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>0.33</v>
@@ -4739,7 +4748,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR19">
         <v>1.46</v>
@@ -5070,7 +5079,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5276,7 +5285,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5357,7 +5366,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5894,7 +5903,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5972,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
         <v>2.43</v>
@@ -6100,7 +6109,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6178,7 +6187,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6306,7 +6315,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6512,7 +6521,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6593,7 +6602,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -6924,7 +6933,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7130,7 +7139,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7208,7 +7217,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7336,7 +7345,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7623,7 +7632,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7748,7 +7757,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8032,7 +8041,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>0.29</v>
@@ -8366,7 +8375,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8447,7 +8456,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR37">
         <v>1.26</v>
@@ -9271,7 +9280,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ41">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR41">
         <v>1.54</v>
@@ -9886,7 +9895,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10092,7 +10101,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
         <v>0.29</v>
@@ -10301,7 +10310,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10916,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11331,7 +11340,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -12358,7 +12367,7 @@
         <v>1.25</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12773,7 +12782,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12979,7 +12988,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR59">
         <v>1.49</v>
@@ -13597,7 +13606,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR62">
         <v>1.73</v>
@@ -14215,7 +14224,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ65">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -14340,7 +14349,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14833,7 +14842,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15036,7 +15045,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>0.29</v>
@@ -15448,10 +15457,10 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.66</v>
@@ -15576,7 +15585,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -15860,7 +15869,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>1.29</v>
@@ -16969,6 +16978,624 @@
       </c>
       <c r="BP78">
         <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7806833</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45788.1875</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s">
+        <v>73</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>134</v>
+      </c>
+      <c r="P79" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q79">
+        <v>4.33</v>
+      </c>
+      <c r="R79">
+        <v>2.2</v>
+      </c>
+      <c r="S79">
+        <v>2.6</v>
+      </c>
+      <c r="T79">
+        <v>1.4</v>
+      </c>
+      <c r="U79">
+        <v>2.75</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>8</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>3.5</v>
+      </c>
+      <c r="AA79">
+        <v>3.45</v>
+      </c>
+      <c r="AB79">
+        <v>1.83</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>9</v>
+      </c>
+      <c r="AE79">
+        <v>1.3</v>
+      </c>
+      <c r="AF79">
+        <v>3.45</v>
+      </c>
+      <c r="AG79">
+        <v>1.81</v>
+      </c>
+      <c r="AH79">
+        <v>1.89</v>
+      </c>
+      <c r="AI79">
+        <v>1.8</v>
+      </c>
+      <c r="AJ79">
+        <v>1.91</v>
+      </c>
+      <c r="AK79">
+        <v>1.8</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.25</v>
+      </c>
+      <c r="AN79">
+        <v>1.5</v>
+      </c>
+      <c r="AO79">
+        <v>1.67</v>
+      </c>
+      <c r="AP79">
+        <v>1.29</v>
+      </c>
+      <c r="AQ79">
+        <v>1.86</v>
+      </c>
+      <c r="AR79">
+        <v>1.5</v>
+      </c>
+      <c r="AS79">
+        <v>1.86</v>
+      </c>
+      <c r="AT79">
+        <v>3.36</v>
+      </c>
+      <c r="AU79">
+        <v>4</v>
+      </c>
+      <c r="AV79">
+        <v>11</v>
+      </c>
+      <c r="AW79">
+        <v>11</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>18</v>
+      </c>
+      <c r="AZ79">
+        <v>19</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>12</v>
+      </c>
+      <c r="BC79">
+        <v>14</v>
+      </c>
+      <c r="BD79">
+        <v>2.6</v>
+      </c>
+      <c r="BE79">
+        <v>8</v>
+      </c>
+      <c r="BF79">
+        <v>1.62</v>
+      </c>
+      <c r="BG79">
+        <v>1.38</v>
+      </c>
+      <c r="BH79">
+        <v>2.71</v>
+      </c>
+      <c r="BI79">
+        <v>1.7</v>
+      </c>
+      <c r="BJ79">
+        <v>2.05</v>
+      </c>
+      <c r="BK79">
+        <v>2.15</v>
+      </c>
+      <c r="BL79">
+        <v>1.59</v>
+      </c>
+      <c r="BM79">
+        <v>2.88</v>
+      </c>
+      <c r="BN79">
+        <v>1.32</v>
+      </c>
+      <c r="BO79">
+        <v>4.1</v>
+      </c>
+      <c r="BP79">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7806834</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45788.29166666666</v>
+      </c>
+      <c r="F80">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>82</v>
+      </c>
+      <c r="P80" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q80">
+        <v>3.6</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>3.1</v>
+      </c>
+      <c r="T80">
+        <v>1.44</v>
+      </c>
+      <c r="U80">
+        <v>2.63</v>
+      </c>
+      <c r="V80">
+        <v>3.25</v>
+      </c>
+      <c r="W80">
+        <v>1.33</v>
+      </c>
+      <c r="X80">
+        <v>9</v>
+      </c>
+      <c r="Y80">
+        <v>1.07</v>
+      </c>
+      <c r="Z80">
+        <v>2.58</v>
+      </c>
+      <c r="AA80">
+        <v>3.23</v>
+      </c>
+      <c r="AB80">
+        <v>2.37</v>
+      </c>
+      <c r="AC80">
+        <v>1.07</v>
+      </c>
+      <c r="AD80">
+        <v>8</v>
+      </c>
+      <c r="AE80">
+        <v>1.38</v>
+      </c>
+      <c r="AF80">
+        <v>3</v>
+      </c>
+      <c r="AG80">
+        <v>1.86</v>
+      </c>
+      <c r="AH80">
+        <v>1.84</v>
+      </c>
+      <c r="AI80">
+        <v>1.83</v>
+      </c>
+      <c r="AJ80">
+        <v>1.83</v>
+      </c>
+      <c r="AK80">
+        <v>1.55</v>
+      </c>
+      <c r="AL80">
+        <v>1.28</v>
+      </c>
+      <c r="AM80">
+        <v>1.36</v>
+      </c>
+      <c r="AN80">
+        <v>1.6</v>
+      </c>
+      <c r="AO80">
+        <v>1.43</v>
+      </c>
+      <c r="AP80">
+        <v>1.33</v>
+      </c>
+      <c r="AQ80">
+        <v>1.63</v>
+      </c>
+      <c r="AR80">
+        <v>1.51</v>
+      </c>
+      <c r="AS80">
+        <v>1.55</v>
+      </c>
+      <c r="AT80">
+        <v>3.06</v>
+      </c>
+      <c r="AU80">
+        <v>-1</v>
+      </c>
+      <c r="AV80">
+        <v>-1</v>
+      </c>
+      <c r="AW80">
+        <v>-1</v>
+      </c>
+      <c r="AX80">
+        <v>-1</v>
+      </c>
+      <c r="AY80">
+        <v>-1</v>
+      </c>
+      <c r="AZ80">
+        <v>-1</v>
+      </c>
+      <c r="BA80">
+        <v>-1</v>
+      </c>
+      <c r="BB80">
+        <v>-1</v>
+      </c>
+      <c r="BC80">
+        <v>-1</v>
+      </c>
+      <c r="BD80">
+        <v>2.1</v>
+      </c>
+      <c r="BE80">
+        <v>8</v>
+      </c>
+      <c r="BF80">
+        <v>1.91</v>
+      </c>
+      <c r="BG80">
+        <v>1.43</v>
+      </c>
+      <c r="BH80">
+        <v>2.54</v>
+      </c>
+      <c r="BI80">
+        <v>1.8</v>
+      </c>
+      <c r="BJ80">
+        <v>1.91</v>
+      </c>
+      <c r="BK80">
+        <v>2.3</v>
+      </c>
+      <c r="BL80">
+        <v>1.52</v>
+      </c>
+      <c r="BM80">
+        <v>3.08</v>
+      </c>
+      <c r="BN80">
+        <v>1.28</v>
+      </c>
+      <c r="BO80">
+        <v>4.45</v>
+      </c>
+      <c r="BP80">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7806835</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45788.29166666666</v>
+      </c>
+      <c r="F81">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s">
+        <v>74</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>82</v>
+      </c>
+      <c r="P81" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q81">
+        <v>3.5</v>
+      </c>
+      <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>1.5</v>
+      </c>
+      <c r="U81">
+        <v>2.5</v>
+      </c>
+      <c r="V81">
+        <v>3.4</v>
+      </c>
+      <c r="W81">
+        <v>1.3</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>1.06</v>
+      </c>
+      <c r="Z81">
+        <v>2.36</v>
+      </c>
+      <c r="AA81">
+        <v>3.18</v>
+      </c>
+      <c r="AB81">
+        <v>2.62</v>
+      </c>
+      <c r="AC81">
+        <v>1.08</v>
+      </c>
+      <c r="AD81">
+        <v>7.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.42</v>
+      </c>
+      <c r="AF81">
+        <v>2.8</v>
+      </c>
+      <c r="AG81">
+        <v>2.15</v>
+      </c>
+      <c r="AH81">
+        <v>1.57</v>
+      </c>
+      <c r="AI81">
+        <v>1.91</v>
+      </c>
+      <c r="AJ81">
+        <v>1.8</v>
+      </c>
+      <c r="AK81">
+        <v>1.48</v>
+      </c>
+      <c r="AL81">
+        <v>1.3</v>
+      </c>
+      <c r="AM81">
+        <v>1.42</v>
+      </c>
+      <c r="AN81">
+        <v>2.17</v>
+      </c>
+      <c r="AO81">
+        <v>2.4</v>
+      </c>
+      <c r="AP81">
+        <v>1.86</v>
+      </c>
+      <c r="AQ81">
+        <v>2.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.49</v>
+      </c>
+      <c r="AS81">
+        <v>1.14</v>
+      </c>
+      <c r="AT81">
+        <v>2.63</v>
+      </c>
+      <c r="AU81">
+        <v>-1</v>
+      </c>
+      <c r="AV81">
+        <v>-1</v>
+      </c>
+      <c r="AW81">
+        <v>-1</v>
+      </c>
+      <c r="AX81">
+        <v>-1</v>
+      </c>
+      <c r="AY81">
+        <v>-1</v>
+      </c>
+      <c r="AZ81">
+        <v>-1</v>
+      </c>
+      <c r="BA81">
+        <v>-1</v>
+      </c>
+      <c r="BB81">
+        <v>-1</v>
+      </c>
+      <c r="BC81">
+        <v>-1</v>
+      </c>
+      <c r="BD81">
+        <v>1.85</v>
+      </c>
+      <c r="BE81">
+        <v>8</v>
+      </c>
+      <c r="BF81">
+        <v>2.15</v>
+      </c>
+      <c r="BG81">
+        <v>1.42</v>
+      </c>
+      <c r="BH81">
+        <v>2.57</v>
+      </c>
+      <c r="BI81">
+        <v>1.8</v>
+      </c>
+      <c r="BJ81">
+        <v>1.91</v>
+      </c>
+      <c r="BK81">
+        <v>2.3</v>
+      </c>
+      <c r="BL81">
+        <v>1.52</v>
+      </c>
+      <c r="BM81">
+        <v>3.08</v>
+      </c>
+      <c r="BN81">
+        <v>1.28</v>
+      </c>
+      <c r="BO81">
+        <v>4.45</v>
+      </c>
+      <c r="BP81">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -17326,31 +17326,31 @@
         <v>3.06</v>
       </c>
       <c r="AU80">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV80">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AW80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX80">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY80">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ80">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="BA80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB80">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC80">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD80">
         <v>2.1</v>
@@ -17532,31 +17532,31 @@
         <v>2.63</v>
       </c>
       <c r="AU81">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV81">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW81">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY81">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ81">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA81">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC81">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD81">
         <v>1.85</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -17120,22 +17120,22 @@
         <v>3.36</v>
       </c>
       <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>10</v>
+      </c>
+      <c r="AW79">
+        <v>10</v>
+      </c>
+      <c r="AX79">
         <v>4</v>
-      </c>
-      <c r="AV79">
-        <v>11</v>
-      </c>
-      <c r="AW79">
-        <v>11</v>
-      </c>
-      <c r="AX79">
-        <v>6</v>
       </c>
       <c r="AY79">
         <v>18</v>
       </c>
       <c r="AZ79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA79">
         <v>2</v>
@@ -17326,16 +17326,16 @@
         <v>3.06</v>
       </c>
       <c r="AU80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY80">
         <v>8</v>
@@ -17532,22 +17532,22 @@
         <v>2.63</v>
       </c>
       <c r="AU81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV81">
         <v>4</v>
       </c>
       <c r="AW81">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX81">
         <v>2</v>
       </c>
       <c r="AY81">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA81">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['12', '36']</t>
   </si>
   <si>
     <t>['32', '87', '90']</t>
@@ -906,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1168,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1783,7 +1786,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1864,7 +1867,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1989,7 +1992,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2067,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -2195,7 +2198,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2401,7 +2404,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2607,7 +2610,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2813,7 +2816,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -2894,7 +2897,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3019,7 +3022,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3225,7 +3228,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3303,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3431,7 +3434,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -4130,7 +4133,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>1.8</v>
@@ -5079,7 +5082,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5285,7 +5288,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5775,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
         <v>1.29</v>
@@ -5903,7 +5906,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6109,7 +6112,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6315,7 +6318,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6396,7 +6399,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>2.02</v>
@@ -6521,7 +6524,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6933,7 +6936,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7011,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7139,7 +7142,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7345,7 +7348,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7757,7 +7760,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8581,7 +8584,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9199,7 +9202,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9405,7 +9408,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10229,7 +10232,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10435,7 +10438,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10722,7 +10725,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
         <v>1.68</v>
@@ -11053,7 +11056,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11131,7 +11134,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
         <v>0.33</v>
@@ -11259,7 +11262,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11465,7 +11468,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11671,7 +11674,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11877,7 +11880,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12083,7 +12086,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12495,7 +12498,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12573,7 +12576,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
         <v>0.29</v>
@@ -12701,7 +12704,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12907,7 +12910,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13113,7 +13116,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -14143,7 +14146,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14349,7 +14352,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14430,7 +14433,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR66">
         <v>1.46</v>
@@ -14555,7 +14558,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14761,7 +14764,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15173,7 +15176,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15585,7 +15588,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -15663,7 +15666,7 @@
         <v>2.67</v>
       </c>
       <c r="AP72">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ72">
         <v>2.43</v>
@@ -15791,7 +15794,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15997,7 +16000,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16203,7 +16206,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16615,7 +16618,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17027,7 +17030,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q79">
         <v>4.33</v>
@@ -17233,7 +17236,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17439,7 +17442,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17596,6 +17599,212 @@
       </c>
       <c r="BP81">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7806836</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45794.1875</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>135</v>
+      </c>
+      <c r="P82" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q82">
+        <v>2.38</v>
+      </c>
+      <c r="R82">
+        <v>2.2</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>1.7</v>
+      </c>
+      <c r="AA82">
+        <v>3.37</v>
+      </c>
+      <c r="AB82">
+        <v>4.3</v>
+      </c>
+      <c r="AC82">
+        <v>1.06</v>
+      </c>
+      <c r="AD82">
+        <v>8.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.35</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>1.96</v>
+      </c>
+      <c r="AH82">
+        <v>1.74</v>
+      </c>
+      <c r="AI82">
+        <v>1.91</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.18</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>2.05</v>
+      </c>
+      <c r="AN82">
+        <v>1.43</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>1.63</v>
+      </c>
+      <c r="AQ82">
+        <v>0.86</v>
+      </c>
+      <c r="AR82">
+        <v>1.65</v>
+      </c>
+      <c r="AS82">
+        <v>1.34</v>
+      </c>
+      <c r="AT82">
+        <v>2.99</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>6</v>
+      </c>
+      <c r="AX82">
+        <v>7</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>16</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>11</v>
+      </c>
+      <c r="BD82">
+        <v>1.56</v>
+      </c>
+      <c r="BE82">
+        <v>6.4</v>
+      </c>
+      <c r="BF82">
+        <v>2.7</v>
+      </c>
+      <c r="BG82">
+        <v>1.56</v>
+      </c>
+      <c r="BH82">
+        <v>2.23</v>
+      </c>
+      <c r="BI82">
+        <v>1.95</v>
+      </c>
+      <c r="BJ82">
+        <v>1.75</v>
+      </c>
+      <c r="BK82">
+        <v>2.5</v>
+      </c>
+      <c r="BL82">
+        <v>1.46</v>
+      </c>
+      <c r="BM82">
+        <v>3.3</v>
+      </c>
+      <c r="BN82">
+        <v>1.28</v>
+      </c>
+      <c r="BO82">
+        <v>4.4</v>
+      </c>
+      <c r="BP82">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,12 @@
     <t>['12', '36']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -440,9 +446,6 @@
   </si>
   <si>
     <t>['90+4']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['8', '59']</t>
@@ -548,6 +551,12 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1177,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1786,7 +1795,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1992,7 +2001,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2198,7 +2207,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2404,7 +2413,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2610,7 +2619,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2816,7 +2825,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>2.45</v>
@@ -3022,7 +3031,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3103,7 +3112,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ11">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3228,7 +3237,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3434,7 +3443,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3512,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4542,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR18">
         <v>2.13</v>
@@ -5082,7 +5091,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5288,7 +5297,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5575,7 +5584,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR23">
         <v>2.19</v>
@@ -5906,7 +5915,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6112,7 +6121,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6190,7 +6199,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6318,7 +6327,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6524,7 +6533,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6605,7 +6614,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -6808,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6936,7 +6945,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7142,7 +7151,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7348,7 +7357,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7635,7 +7644,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ33">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7760,7 +7769,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8250,7 +8259,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8584,7 +8593,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9074,7 +9083,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
         <v>0.29</v>
@@ -9202,7 +9211,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9408,7 +9417,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9901,7 +9910,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
         <v>1.71</v>
@@ -10232,7 +10241,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10438,7 +10447,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10928,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11056,7 +11065,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11137,7 +11146,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR50">
         <v>1.68</v>
@@ -11262,7 +11271,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11343,7 +11352,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -11468,7 +11477,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11674,7 +11683,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11880,7 +11889,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -11958,7 +11967,7 @@
         <v>2.6</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>2.43</v>
@@ -12086,7 +12095,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12498,7 +12507,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12704,7 +12713,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12785,7 +12794,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12910,7 +12919,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13116,7 +13125,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13197,7 +13206,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR60">
         <v>1.61</v>
@@ -13606,10 +13615,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR62">
         <v>1.73</v>
@@ -14146,7 +14155,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14352,7 +14361,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14558,7 +14567,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14639,7 +14648,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR67">
         <v>2.01</v>
@@ -14764,7 +14773,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15048,7 +15057,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69">
         <v>0.29</v>
@@ -15176,7 +15185,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15588,7 +15597,7 @@
         <v>93</v>
       </c>
       <c r="P72" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -15794,7 +15803,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16000,7 +16009,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16206,7 +16215,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16618,7 +16627,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17030,7 +17039,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q79">
         <v>4.33</v>
@@ -17111,7 +17120,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ79">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR79">
         <v>1.5</v>
@@ -17236,7 +17245,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17314,7 +17323,7 @@
         <v>1.43</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>1.63</v>
@@ -17442,7 +17451,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17805,6 +17814,418 @@
       </c>
       <c r="BP82">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7806837</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45794.29166666666</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s">
+        <v>73</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>136</v>
+      </c>
+      <c r="P83" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q83">
+        <v>4.33</v>
+      </c>
+      <c r="R83">
+        <v>2.1</v>
+      </c>
+      <c r="S83">
+        <v>2.63</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.63</v>
+      </c>
+      <c r="V83">
+        <v>3.25</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>9</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>3.82</v>
+      </c>
+      <c r="AA83">
+        <v>3.12</v>
+      </c>
+      <c r="AB83">
+        <v>1.86</v>
+      </c>
+      <c r="AC83">
+        <v>1.07</v>
+      </c>
+      <c r="AD83">
+        <v>8</v>
+      </c>
+      <c r="AE83">
+        <v>1.38</v>
+      </c>
+      <c r="AF83">
+        <v>3</v>
+      </c>
+      <c r="AG83">
+        <v>2</v>
+      </c>
+      <c r="AH83">
+        <v>1.67</v>
+      </c>
+      <c r="AI83">
+        <v>1.91</v>
+      </c>
+      <c r="AJ83">
+        <v>1.8</v>
+      </c>
+      <c r="AK83">
+        <v>1.77</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.25</v>
+      </c>
+      <c r="AN83">
+        <v>1.33</v>
+      </c>
+      <c r="AO83">
+        <v>1.86</v>
+      </c>
+      <c r="AP83">
+        <v>1.29</v>
+      </c>
+      <c r="AQ83">
+        <v>1.75</v>
+      </c>
+      <c r="AR83">
+        <v>1.46</v>
+      </c>
+      <c r="AS83">
+        <v>1.9</v>
+      </c>
+      <c r="AT83">
+        <v>3.36</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>7</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>15</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>8</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>2.3</v>
+      </c>
+      <c r="BE83">
+        <v>6.1</v>
+      </c>
+      <c r="BF83">
+        <v>1.79</v>
+      </c>
+      <c r="BG83">
+        <v>1.49</v>
+      </c>
+      <c r="BH83">
+        <v>2.43</v>
+      </c>
+      <c r="BI83">
+        <v>1.81</v>
+      </c>
+      <c r="BJ83">
+        <v>1.89</v>
+      </c>
+      <c r="BK83">
+        <v>2.3</v>
+      </c>
+      <c r="BL83">
+        <v>1.54</v>
+      </c>
+      <c r="BM83">
+        <v>2.95</v>
+      </c>
+      <c r="BN83">
+        <v>1.33</v>
+      </c>
+      <c r="BO83">
+        <v>3.95</v>
+      </c>
+      <c r="BP83">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7806838</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45794.29166666666</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s">
+        <v>71</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>137</v>
+      </c>
+      <c r="P84" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q84">
+        <v>2.4</v>
+      </c>
+      <c r="R84">
+        <v>2.2</v>
+      </c>
+      <c r="S84">
+        <v>4.75</v>
+      </c>
+      <c r="T84">
+        <v>1.36</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>2.75</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>8</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>1.77</v>
+      </c>
+      <c r="AA84">
+        <v>3.31</v>
+      </c>
+      <c r="AB84">
+        <v>3.96</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>9</v>
+      </c>
+      <c r="AE84">
+        <v>1.3</v>
+      </c>
+      <c r="AF84">
+        <v>3.4</v>
+      </c>
+      <c r="AG84">
+        <v>1.91</v>
+      </c>
+      <c r="AH84">
+        <v>1.79</v>
+      </c>
+      <c r="AI84">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84">
+        <v>1.91</v>
+      </c>
+      <c r="AK84">
+        <v>1.2</v>
+      </c>
+      <c r="AL84">
+        <v>1.22</v>
+      </c>
+      <c r="AM84">
+        <v>1.93</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+      <c r="AO84">
+        <v>0.33</v>
+      </c>
+      <c r="AP84">
+        <v>1.83</v>
+      </c>
+      <c r="AQ84">
+        <v>0.43</v>
+      </c>
+      <c r="AR84">
+        <v>1.76</v>
+      </c>
+      <c r="AS84">
+        <v>1.7</v>
+      </c>
+      <c r="AT84">
+        <v>3.46</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>9</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>16</v>
+      </c>
+      <c r="AZ84">
+        <v>7</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>10</v>
+      </c>
+      <c r="BD84">
+        <v>1.52</v>
+      </c>
+      <c r="BE84">
+        <v>6.75</v>
+      </c>
+      <c r="BF84">
+        <v>2.8</v>
+      </c>
+      <c r="BG84">
+        <v>1.42</v>
+      </c>
+      <c r="BH84">
+        <v>2.65</v>
+      </c>
+      <c r="BI84">
+        <v>1.7</v>
+      </c>
+      <c r="BJ84">
+        <v>2.02</v>
+      </c>
+      <c r="BK84">
+        <v>2.1</v>
+      </c>
+      <c r="BL84">
+        <v>1.65</v>
+      </c>
+      <c r="BM84">
+        <v>2.7</v>
+      </c>
+      <c r="BN84">
+        <v>1.38</v>
+      </c>
+      <c r="BO84">
+        <v>3.65</v>
+      </c>
+      <c r="BP84">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,9 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['83', '90', '90+4']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -557,6 +560,9 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1183,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1255,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ2">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1464,7 +1470,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1795,7 +1801,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -2001,7 +2007,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2207,7 +2213,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2285,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>1.29</v>
@@ -2413,7 +2419,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2619,7 +2625,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2697,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
         <v>0.29</v>
@@ -3031,7 +3037,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3237,7 +3243,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3318,7 +3324,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>1.8</v>
@@ -3443,7 +3449,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3933,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
         <v>0.29</v>
@@ -4963,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5091,7 +5097,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5169,10 +5175,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR21">
         <v>1.94</v>
@@ -5297,7 +5303,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5915,7 +5921,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5996,7 +6002,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR25">
         <v>1.2</v>
@@ -6121,7 +6127,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6202,7 +6208,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
         <v>1.64</v>
@@ -6327,7 +6333,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6405,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>0.86</v>
@@ -6533,7 +6539,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6611,7 +6617,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -6820,7 +6826,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6945,7 +6951,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7151,7 +7157,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7357,7 +7363,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7641,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7769,7 +7775,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7850,7 +7856,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.58</v>
@@ -8593,7 +8599,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8674,7 +8680,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR38">
         <v>2.21</v>
@@ -8880,7 +8886,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -9211,7 +9217,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9417,7 +9423,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9495,7 +9501,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -10241,7 +10247,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10319,7 +10325,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
         <v>1.63</v>
@@ -10447,7 +10453,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10528,7 +10534,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR47">
         <v>0.99</v>
@@ -10731,7 +10737,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
         <v>0.86</v>
@@ -10940,7 +10946,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11065,7 +11071,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11271,7 +11277,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11349,7 +11355,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11477,7 +11483,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11683,7 +11689,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11889,7 +11895,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -11970,7 +11976,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR54">
         <v>1.88</v>
@@ -12095,7 +12101,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12176,7 +12182,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12507,7 +12513,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12713,7 +12719,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12919,7 +12925,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12997,7 +13003,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ59">
         <v>2.5</v>
@@ -13125,7 +13131,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13409,10 +13415,10 @@
         <v>1.25</v>
       </c>
       <c r="AP61">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.8</v>
@@ -14030,7 +14036,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>2.07</v>
@@ -14155,7 +14161,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14233,7 +14239,7 @@
         <v>1.4</v>
       </c>
       <c r="AP65">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ65">
         <v>1.63</v>
@@ -14361,7 +14367,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14567,7 +14573,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14645,7 +14651,7 @@
         <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
         <v>0.43</v>
@@ -14773,7 +14779,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15185,7 +15191,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15678,7 +15684,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ72">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -15803,7 +15809,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16009,7 +16015,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16090,7 +16096,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16215,7 +16221,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16293,7 +16299,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>0.29</v>
@@ -16499,7 +16505,7 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
         <v>0.29</v>
@@ -16627,7 +16633,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16914,7 +16920,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17039,7 +17045,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q79">
         <v>4.33</v>
@@ -17245,7 +17251,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17451,7 +17457,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17863,7 +17869,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18069,7 +18075,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q84">
         <v>2.4</v>
@@ -18226,6 +18232,624 @@
       </c>
       <c r="BP84">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7806839</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45795.1875</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>82</v>
+      </c>
+      <c r="P85" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q85">
+        <v>3.1</v>
+      </c>
+      <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>3.6</v>
+      </c>
+      <c r="T85">
+        <v>1.44</v>
+      </c>
+      <c r="U85">
+        <v>2.63</v>
+      </c>
+      <c r="V85">
+        <v>3.25</v>
+      </c>
+      <c r="W85">
+        <v>1.33</v>
+      </c>
+      <c r="X85">
+        <v>10</v>
+      </c>
+      <c r="Y85">
+        <v>1.06</v>
+      </c>
+      <c r="Z85">
+        <v>2.33</v>
+      </c>
+      <c r="AA85">
+        <v>3.01</v>
+      </c>
+      <c r="AB85">
+        <v>2.79</v>
+      </c>
+      <c r="AC85">
+        <v>1.07</v>
+      </c>
+      <c r="AD85">
+        <v>8</v>
+      </c>
+      <c r="AE85">
+        <v>1.4</v>
+      </c>
+      <c r="AF85">
+        <v>2.9</v>
+      </c>
+      <c r="AG85">
+        <v>2.1</v>
+      </c>
+      <c r="AH85">
+        <v>1.6</v>
+      </c>
+      <c r="AI85">
+        <v>1.83</v>
+      </c>
+      <c r="AJ85">
+        <v>1.83</v>
+      </c>
+      <c r="AK85">
+        <v>1.38</v>
+      </c>
+      <c r="AL85">
+        <v>1.28</v>
+      </c>
+      <c r="AM85">
+        <v>1.55</v>
+      </c>
+      <c r="AN85">
+        <v>1.86</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>1.63</v>
+      </c>
+      <c r="AQ85">
+        <v>1.29</v>
+      </c>
+      <c r="AR85">
+        <v>1.61</v>
+      </c>
+      <c r="AS85">
+        <v>1.09</v>
+      </c>
+      <c r="AT85">
+        <v>2.7</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+      <c r="AW85">
+        <v>12</v>
+      </c>
+      <c r="AX85">
+        <v>7</v>
+      </c>
+      <c r="AY85">
+        <v>19</v>
+      </c>
+      <c r="AZ85">
+        <v>9</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>5</v>
+      </c>
+      <c r="BD85">
+        <v>1.79</v>
+      </c>
+      <c r="BE85">
+        <v>6.25</v>
+      </c>
+      <c r="BF85">
+        <v>2.25</v>
+      </c>
+      <c r="BG85">
+        <v>1.49</v>
+      </c>
+      <c r="BH85">
+        <v>2.4</v>
+      </c>
+      <c r="BI85">
+        <v>1.82</v>
+      </c>
+      <c r="BJ85">
+        <v>1.86</v>
+      </c>
+      <c r="BK85">
+        <v>2.32</v>
+      </c>
+      <c r="BL85">
+        <v>1.53</v>
+      </c>
+      <c r="BM85">
+        <v>3.05</v>
+      </c>
+      <c r="BN85">
+        <v>1.32</v>
+      </c>
+      <c r="BO85">
+        <v>4.1</v>
+      </c>
+      <c r="BP85">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7806840</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45795.1875</v>
+      </c>
+      <c r="F86">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>82</v>
+      </c>
+      <c r="P86" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>2.38</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>1.36</v>
+      </c>
+      <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>4.3</v>
+      </c>
+      <c r="AA86">
+        <v>3.4</v>
+      </c>
+      <c r="AB86">
+        <v>1.69</v>
+      </c>
+      <c r="AC86">
+        <v>1.06</v>
+      </c>
+      <c r="AD86">
+        <v>8.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.33</v>
+      </c>
+      <c r="AF86">
+        <v>3.25</v>
+      </c>
+      <c r="AG86">
+        <v>1.95</v>
+      </c>
+      <c r="AH86">
+        <v>1.75</v>
+      </c>
+      <c r="AI86">
+        <v>1.83</v>
+      </c>
+      <c r="AJ86">
+        <v>1.83</v>
+      </c>
+      <c r="AK86">
+        <v>2</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.18</v>
+      </c>
+      <c r="AN86">
+        <v>1.5</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>1.29</v>
+      </c>
+      <c r="AQ86">
+        <v>1.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.94</v>
+      </c>
+      <c r="AS86">
+        <v>1.77</v>
+      </c>
+      <c r="AT86">
+        <v>3.71</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>6</v>
+      </c>
+      <c r="AW86">
+        <v>3</v>
+      </c>
+      <c r="AX86">
+        <v>8</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>15</v>
+      </c>
+      <c r="BA86">
+        <v>7</v>
+      </c>
+      <c r="BB86">
+        <v>8</v>
+      </c>
+      <c r="BC86">
+        <v>15</v>
+      </c>
+      <c r="BD86">
+        <v>2.55</v>
+      </c>
+      <c r="BE86">
+        <v>6.4</v>
+      </c>
+      <c r="BF86">
+        <v>1.64</v>
+      </c>
+      <c r="BG86">
+        <v>1.38</v>
+      </c>
+      <c r="BH86">
+        <v>2.8</v>
+      </c>
+      <c r="BI86">
+        <v>1.64</v>
+      </c>
+      <c r="BJ86">
+        <v>2.12</v>
+      </c>
+      <c r="BK86">
+        <v>2</v>
+      </c>
+      <c r="BL86">
+        <v>1.71</v>
+      </c>
+      <c r="BM86">
+        <v>2.55</v>
+      </c>
+      <c r="BN86">
+        <v>1.44</v>
+      </c>
+      <c r="BO86">
+        <v>3.4</v>
+      </c>
+      <c r="BP86">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7806841</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45795.29166666666</v>
+      </c>
+      <c r="F87">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>138</v>
+      </c>
+      <c r="P87" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q87">
+        <v>3.2</v>
+      </c>
+      <c r="R87">
+        <v>2.1</v>
+      </c>
+      <c r="S87">
+        <v>3.4</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>8</v>
+      </c>
+      <c r="Y87">
+        <v>1.08</v>
+      </c>
+      <c r="Z87">
+        <v>2.41</v>
+      </c>
+      <c r="AA87">
+        <v>3.12</v>
+      </c>
+      <c r="AB87">
+        <v>2.6</v>
+      </c>
+      <c r="AC87">
+        <v>1.06</v>
+      </c>
+      <c r="AD87">
+        <v>8.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.33</v>
+      </c>
+      <c r="AF87">
+        <v>3.25</v>
+      </c>
+      <c r="AG87">
+        <v>1.93</v>
+      </c>
+      <c r="AH87">
+        <v>1.77</v>
+      </c>
+      <c r="AI87">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87">
+        <v>1.91</v>
+      </c>
+      <c r="AK87">
+        <v>1.45</v>
+      </c>
+      <c r="AL87">
+        <v>1.28</v>
+      </c>
+      <c r="AM87">
+        <v>1.48</v>
+      </c>
+      <c r="AN87">
+        <v>1.5</v>
+      </c>
+      <c r="AO87">
+        <v>2.43</v>
+      </c>
+      <c r="AP87">
+        <v>1.71</v>
+      </c>
+      <c r="AQ87">
+        <v>2.13</v>
+      </c>
+      <c r="AR87">
+        <v>1.6</v>
+      </c>
+      <c r="AS87">
+        <v>1.26</v>
+      </c>
+      <c r="AT87">
+        <v>2.86</v>
+      </c>
+      <c r="AU87">
+        <v>12</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>19</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>38</v>
+      </c>
+      <c r="AZ87">
+        <v>10</v>
+      </c>
+      <c r="BA87">
+        <v>8</v>
+      </c>
+      <c r="BB87">
+        <v>1</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>1.91</v>
+      </c>
+      <c r="BE87">
+        <v>5.8</v>
+      </c>
+      <c r="BF87">
+        <v>2.12</v>
+      </c>
+      <c r="BG87">
+        <v>1.5</v>
+      </c>
+      <c r="BH87">
+        <v>2.35</v>
+      </c>
+      <c r="BI87">
+        <v>1.85</v>
+      </c>
+      <c r="BJ87">
+        <v>1.83</v>
+      </c>
+      <c r="BK87">
+        <v>2.38</v>
+      </c>
+      <c r="BL87">
+        <v>1.5</v>
+      </c>
+      <c r="BM87">
+        <v>3.05</v>
+      </c>
+      <c r="BN87">
+        <v>1.3</v>
+      </c>
+      <c r="BO87">
+        <v>4.1</v>
+      </c>
+      <c r="BP87">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -564,6 +564,9 @@
   <si>
     <t>['48']</t>
   </si>
+  <si>
+    <t>['53', '60']</t>
+  </si>
 </sst>
 </file>
 
@@ -924,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1467,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -2497,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>1.63</v>
@@ -3530,7 +3533,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3736,7 +3739,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ14">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR14">
         <v>2.51</v>
@@ -5381,7 +5384,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
         <v>1.63</v>
@@ -5999,7 +6002,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
         <v>2.13</v>
@@ -7032,7 +7035,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -7238,7 +7241,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>1.73</v>
@@ -8059,7 +8062,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>0.29</v>
@@ -8471,10 +8474,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ37">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR37">
         <v>1.26</v>
@@ -9298,7 +9301,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ41">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR41">
         <v>1.54</v>
@@ -9504,7 +9507,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>1.2</v>
@@ -9707,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -11767,7 +11770,7 @@
         <v>0.25</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ53">
         <v>0.29</v>
@@ -12385,10 +12388,10 @@
         <v>1.25</v>
       </c>
       <c r="AP56">
+        <v>1.25</v>
+      </c>
+      <c r="AQ56">
         <v>1.29</v>
-      </c>
-      <c r="AQ56">
-        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -12797,7 +12800,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ58">
         <v>1.75</v>
@@ -13006,7 +13009,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ59">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR59">
         <v>1.49</v>
@@ -13209,7 +13212,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ60">
         <v>0.43</v>
@@ -14860,7 +14863,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15272,7 +15275,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
         <v>2.06</v>
@@ -15887,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>1.29</v>
@@ -16093,7 +16096,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ74">
         <v>1.25</v>
@@ -16711,7 +16714,7 @@
         <v>0.17</v>
       </c>
       <c r="AP77">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ77">
         <v>0.29</v>
@@ -17123,7 +17126,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
         <v>1.75</v>
@@ -17538,7 +17541,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ81">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR81">
         <v>1.49</v>
@@ -18850,6 +18853,418 @@
       </c>
       <c r="BP87">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7806842</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45800.3125</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>82</v>
+      </c>
+      <c r="P88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q88">
+        <v>3.75</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>2.65</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>2.88</v>
+      </c>
+      <c r="W88">
+        <v>1.36</v>
+      </c>
+      <c r="X88">
+        <v>7.8</v>
+      </c>
+      <c r="Y88">
+        <v>1.02</v>
+      </c>
+      <c r="Z88">
+        <v>3.01</v>
+      </c>
+      <c r="AA88">
+        <v>3.19</v>
+      </c>
+      <c r="AB88">
+        <v>2.11</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>8.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.35</v>
+      </c>
+      <c r="AF88">
+        <v>3.1</v>
+      </c>
+      <c r="AG88">
+        <v>1.95</v>
+      </c>
+      <c r="AH88">
+        <v>1.7</v>
+      </c>
+      <c r="AI88">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88">
+        <v>1.85</v>
+      </c>
+      <c r="AK88">
+        <v>1.7</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.3</v>
+      </c>
+      <c r="AN88">
+        <v>1.29</v>
+      </c>
+      <c r="AO88">
+        <v>2.5</v>
+      </c>
+      <c r="AP88">
+        <v>1.25</v>
+      </c>
+      <c r="AQ88">
+        <v>2.29</v>
+      </c>
+      <c r="AR88">
+        <v>1.52</v>
+      </c>
+      <c r="AS88">
+        <v>1.08</v>
+      </c>
+      <c r="AT88">
+        <v>2.6</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>12</v>
+      </c>
+      <c r="AZ88">
+        <v>16</v>
+      </c>
+      <c r="BA88">
+        <v>2</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>5</v>
+      </c>
+      <c r="BD88">
+        <v>2.33</v>
+      </c>
+      <c r="BE88">
+        <v>6.5</v>
+      </c>
+      <c r="BF88">
+        <v>1.73</v>
+      </c>
+      <c r="BG88">
+        <v>1.38</v>
+      </c>
+      <c r="BH88">
+        <v>2.7</v>
+      </c>
+      <c r="BI88">
+        <v>1.65</v>
+      </c>
+      <c r="BJ88">
+        <v>2.08</v>
+      </c>
+      <c r="BK88">
+        <v>2.05</v>
+      </c>
+      <c r="BL88">
+        <v>1.68</v>
+      </c>
+      <c r="BM88">
+        <v>2.63</v>
+      </c>
+      <c r="BN88">
+        <v>1.43</v>
+      </c>
+      <c r="BO88">
+        <v>3.4</v>
+      </c>
+      <c r="BP88">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7806843</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45800.3125</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>82</v>
+      </c>
+      <c r="P89" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q89">
+        <v>3.4</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>3.1</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <v>1.36</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>2.63</v>
+      </c>
+      <c r="AA89">
+        <v>2.95</v>
+      </c>
+      <c r="AB89">
+        <v>2.5</v>
+      </c>
+      <c r="AC89">
+        <v>1.06</v>
+      </c>
+      <c r="AD89">
+        <v>8.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.33</v>
+      </c>
+      <c r="AF89">
+        <v>3.2</v>
+      </c>
+      <c r="AG89">
+        <v>1.94</v>
+      </c>
+      <c r="AH89">
+        <v>1.76</v>
+      </c>
+      <c r="AI89">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.5</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.42</v>
+      </c>
+      <c r="AN89">
+        <v>1.38</v>
+      </c>
+      <c r="AO89">
+        <v>1</v>
+      </c>
+      <c r="AP89">
+        <v>1.22</v>
+      </c>
+      <c r="AQ89">
+        <v>1.29</v>
+      </c>
+      <c r="AR89">
+        <v>1.57</v>
+      </c>
+      <c r="AS89">
+        <v>1.53</v>
+      </c>
+      <c r="AT89">
+        <v>3.1</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>5</v>
+      </c>
+      <c r="AY89">
+        <v>8</v>
+      </c>
+      <c r="AZ89">
+        <v>13</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>6</v>
+      </c>
+      <c r="BD89">
+        <v>2.07</v>
+      </c>
+      <c r="BE89">
+        <v>5.8</v>
+      </c>
+      <c r="BF89">
+        <v>1.97</v>
+      </c>
+      <c r="BG89">
+        <v>1.6</v>
+      </c>
+      <c r="BH89">
+        <v>2.17</v>
+      </c>
+      <c r="BI89">
+        <v>2</v>
+      </c>
+      <c r="BJ89">
+        <v>1.71</v>
+      </c>
+      <c r="BK89">
+        <v>2.6</v>
+      </c>
+      <c r="BL89">
+        <v>1.43</v>
+      </c>
+      <c r="BM89">
+        <v>3.45</v>
+      </c>
+      <c r="BN89">
+        <v>1.25</v>
+      </c>
+      <c r="BO89">
+        <v>4.6</v>
+      </c>
+      <c r="BP89">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,15 @@
     <t>['83', '90', '90+4']</t>
   </si>
   <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['73', '88', '90']</t>
+  </si>
+  <si>
+    <t>['23', '57']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -566,6 +575,15 @@
   </si>
   <si>
     <t>['53', '60']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['31', '59']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1204,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1676,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1804,7 +1822,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1882,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
         <v>0.86</v>
@@ -2010,7 +2028,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2091,7 +2109,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2216,7 +2234,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2297,7 +2315,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2422,7 +2440,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2503,7 +2521,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>1.38</v>
@@ -2628,7 +2646,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2709,7 +2727,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR9">
         <v>1.95</v>
@@ -2912,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10">
         <v>0.86</v>
@@ -3040,7 +3058,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3118,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>1.75</v>
@@ -3246,7 +3264,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3452,7 +3470,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3736,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
         <v>2.29</v>
@@ -3945,7 +3963,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR15">
         <v>1.87</v>
@@ -4148,7 +4166,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
         <v>0.86</v>
@@ -4354,10 +4372,10 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR17">
         <v>1.3</v>
@@ -4766,10 +4784,10 @@
         <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR19">
         <v>1.46</v>
@@ -5100,7 +5118,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5306,7 +5324,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5387,7 +5405,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ22">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5590,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>0.43</v>
@@ -5799,7 +5817,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.82</v>
@@ -5924,7 +5942,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6130,7 +6148,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6336,7 +6354,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6542,7 +6560,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6954,7 +6972,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7160,7 +7178,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7238,7 +7256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>1.29</v>
@@ -7366,7 +7384,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7444,10 +7462,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>0.86</v>
@@ -7778,7 +7796,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7856,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>1.29</v>
@@ -8065,7 +8083,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8271,7 +8289,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8602,7 +8620,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8680,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>2.13</v>
@@ -8886,7 +8904,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9095,7 +9113,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -9220,7 +9238,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9298,7 +9316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
         <v>2.29</v>
@@ -9426,7 +9444,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9713,7 +9731,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.25</v>
@@ -9916,7 +9934,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ44">
         <v>0.43</v>
@@ -10122,10 +10140,10 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ45">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR45">
         <v>1.77</v>
@@ -10250,7 +10268,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10331,7 +10349,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ46">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10456,7 +10474,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10534,7 +10552,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
         <v>2.13</v>
@@ -11074,7 +11092,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11280,7 +11298,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11486,7 +11504,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11564,10 +11582,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>2.04</v>
@@ -11692,7 +11710,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11773,7 +11791,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ53">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -11898,7 +11916,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12104,7 +12122,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12182,7 +12200,7 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>1.29</v>
@@ -12516,7 +12534,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12597,7 +12615,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR57">
         <v>1.63</v>
@@ -12722,7 +12740,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12928,7 +12946,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13134,7 +13152,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13830,10 +13848,10 @@
         <v>1.2</v>
       </c>
       <c r="AP63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.45</v>
@@ -14036,7 +14054,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -14164,7 +14182,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14245,7 +14263,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ65">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -14370,7 +14388,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14448,7 +14466,7 @@
         <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>0.86</v>
@@ -14576,7 +14594,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14782,7 +14800,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14860,7 +14878,7 @@
         <v>2.25</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>2.29</v>
@@ -15069,7 +15087,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ69">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15194,7 +15212,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15272,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>1.29</v>
@@ -15478,10 +15496,10 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR71">
         <v>1.66</v>
@@ -15812,7 +15830,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15893,7 +15911,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.33</v>
@@ -16018,7 +16036,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16224,7 +16242,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16305,7 +16323,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
         <v>1.55</v>
@@ -16511,7 +16529,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -16636,7 +16654,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16717,7 +16735,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ77">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -16920,7 +16938,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1.25</v>
@@ -17048,7 +17066,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q79">
         <v>4.33</v>
@@ -17254,7 +17272,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17335,7 +17353,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.51</v>
@@ -17460,7 +17478,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17538,7 +17556,7 @@
         <v>2.4</v>
       </c>
       <c r="AP81">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ81">
         <v>2.29</v>
@@ -17872,7 +17890,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18078,7 +18096,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q84">
         <v>2.4</v>
@@ -18490,7 +18508,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -19108,7 +19126,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q89">
         <v>3.4</v>
@@ -19265,6 +19283,830 @@
       </c>
       <c r="BP89">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7806844</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45801.1875</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" t="s">
+        <v>79</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>139</v>
+      </c>
+      <c r="P90" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q90">
+        <v>2.3</v>
+      </c>
+      <c r="R90">
+        <v>2.2</v>
+      </c>
+      <c r="S90">
+        <v>5.5</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>1.36</v>
+      </c>
+      <c r="X90">
+        <v>8</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>1.56</v>
+      </c>
+      <c r="AA90">
+        <v>3.55</v>
+      </c>
+      <c r="AB90">
+        <v>5</v>
+      </c>
+      <c r="AC90">
+        <v>1.06</v>
+      </c>
+      <c r="AD90">
+        <v>8.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.35</v>
+      </c>
+      <c r="AF90">
+        <v>3.1</v>
+      </c>
+      <c r="AG90">
+        <v>2.01</v>
+      </c>
+      <c r="AH90">
+        <v>1.71</v>
+      </c>
+      <c r="AI90">
+        <v>2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.73</v>
+      </c>
+      <c r="AK90">
+        <v>1.17</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>2.05</v>
+      </c>
+      <c r="AN90">
+        <v>1.33</v>
+      </c>
+      <c r="AO90">
+        <v>0.29</v>
+      </c>
+      <c r="AP90">
+        <v>1.29</v>
+      </c>
+      <c r="AQ90">
+        <v>0.38</v>
+      </c>
+      <c r="AR90">
+        <v>1.6</v>
+      </c>
+      <c r="AS90">
+        <v>1.29</v>
+      </c>
+      <c r="AT90">
+        <v>2.89</v>
+      </c>
+      <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>7</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
+        <v>21</v>
+      </c>
+      <c r="AZ90">
+        <v>9</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>8</v>
+      </c>
+      <c r="BD90">
+        <v>1.54</v>
+      </c>
+      <c r="BE90">
+        <v>6.75</v>
+      </c>
+      <c r="BF90">
+        <v>2.7</v>
+      </c>
+      <c r="BG90">
+        <v>1.44</v>
+      </c>
+      <c r="BH90">
+        <v>2.55</v>
+      </c>
+      <c r="BI90">
+        <v>1.73</v>
+      </c>
+      <c r="BJ90">
+        <v>1.98</v>
+      </c>
+      <c r="BK90">
+        <v>2.15</v>
+      </c>
+      <c r="BL90">
+        <v>1.61</v>
+      </c>
+      <c r="BM90">
+        <v>2.8</v>
+      </c>
+      <c r="BN90">
+        <v>1.38</v>
+      </c>
+      <c r="BO90">
+        <v>3.7</v>
+      </c>
+      <c r="BP90">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7806845</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45801.29166666666</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="s">
+        <v>140</v>
+      </c>
+      <c r="P91" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q91">
+        <v>2.55</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>3.95</v>
+      </c>
+      <c r="T91">
+        <v>1.36</v>
+      </c>
+      <c r="U91">
+        <v>2.85</v>
+      </c>
+      <c r="V91">
+        <v>2.65</v>
+      </c>
+      <c r="W91">
+        <v>1.42</v>
+      </c>
+      <c r="X91">
+        <v>7.1</v>
+      </c>
+      <c r="Y91">
+        <v>1.04</v>
+      </c>
+      <c r="Z91">
+        <v>2.02</v>
+      </c>
+      <c r="AA91">
+        <v>3.58</v>
+      </c>
+      <c r="AB91">
+        <v>3.62</v>
+      </c>
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>9</v>
+      </c>
+      <c r="AE91">
+        <v>1.28</v>
+      </c>
+      <c r="AF91">
+        <v>3.5</v>
+      </c>
+      <c r="AG91">
+        <v>1.85</v>
+      </c>
+      <c r="AH91">
+        <v>1.98</v>
+      </c>
+      <c r="AI91">
+        <v>1.67</v>
+      </c>
+      <c r="AJ91">
+        <v>2.05</v>
+      </c>
+      <c r="AK91">
+        <v>1.3</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.7</v>
+      </c>
+      <c r="AN91">
+        <v>1.38</v>
+      </c>
+      <c r="AO91">
+        <v>1.63</v>
+      </c>
+      <c r="AP91">
+        <v>1.56</v>
+      </c>
+      <c r="AQ91">
+        <v>1.44</v>
+      </c>
+      <c r="AR91">
+        <v>2.04</v>
+      </c>
+      <c r="AS91">
+        <v>1.66</v>
+      </c>
+      <c r="AT91">
+        <v>3.7</v>
+      </c>
+      <c r="AU91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
+        <v>8</v>
+      </c>
+      <c r="AW91">
+        <v>3</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
+        <v>18</v>
+      </c>
+      <c r="AZ91">
+        <v>16</v>
+      </c>
+      <c r="BA91">
+        <v>5</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>9</v>
+      </c>
+      <c r="BD91">
+        <v>1.8</v>
+      </c>
+      <c r="BE91">
+        <v>6.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.23</v>
+      </c>
+      <c r="BG91">
+        <v>1.5</v>
+      </c>
+      <c r="BH91">
+        <v>2.4</v>
+      </c>
+      <c r="BI91">
+        <v>1.84</v>
+      </c>
+      <c r="BJ91">
+        <v>1.84</v>
+      </c>
+      <c r="BK91">
+        <v>2.33</v>
+      </c>
+      <c r="BL91">
+        <v>1.5</v>
+      </c>
+      <c r="BM91">
+        <v>3.05</v>
+      </c>
+      <c r="BN91">
+        <v>1.3</v>
+      </c>
+      <c r="BO91">
+        <v>4.1</v>
+      </c>
+      <c r="BP91">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7806846</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45801.29166666666</v>
+      </c>
+      <c r="F92">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>141</v>
+      </c>
+      <c r="P92" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q92">
+        <v>2.5</v>
+      </c>
+      <c r="R92">
+        <v>2.25</v>
+      </c>
+      <c r="S92">
+        <v>4.33</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.63</v>
+      </c>
+      <c r="W92">
+        <v>1.44</v>
+      </c>
+      <c r="X92">
+        <v>7</v>
+      </c>
+      <c r="Y92">
+        <v>1.1</v>
+      </c>
+      <c r="Z92">
+        <v>1.85</v>
+      </c>
+      <c r="AA92">
+        <v>3.29</v>
+      </c>
+      <c r="AB92">
+        <v>3.64</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>9.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.28</v>
+      </c>
+      <c r="AF92">
+        <v>3.65</v>
+      </c>
+      <c r="AG92">
+        <v>1.91</v>
+      </c>
+      <c r="AH92">
+        <v>1.79</v>
+      </c>
+      <c r="AI92">
+        <v>1.73</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>1.25</v>
+      </c>
+      <c r="AL92">
+        <v>1.22</v>
+      </c>
+      <c r="AM92">
+        <v>1.85</v>
+      </c>
+      <c r="AN92">
+        <v>1.57</v>
+      </c>
+      <c r="AO92">
+        <v>0.29</v>
+      </c>
+      <c r="AP92">
+        <v>1.75</v>
+      </c>
+      <c r="AQ92">
+        <v>0.25</v>
+      </c>
+      <c r="AR92">
+        <v>1.34</v>
+      </c>
+      <c r="AS92">
+        <v>1.34</v>
+      </c>
+      <c r="AT92">
+        <v>2.68</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>4</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>10</v>
+      </c>
+      <c r="AZ92">
+        <v>10</v>
+      </c>
+      <c r="BA92">
+        <v>4</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>1.74</v>
+      </c>
+      <c r="BE92">
+        <v>6.25</v>
+      </c>
+      <c r="BF92">
+        <v>2.33</v>
+      </c>
+      <c r="BG92">
+        <v>1.45</v>
+      </c>
+      <c r="BH92">
+        <v>2.55</v>
+      </c>
+      <c r="BI92">
+        <v>1.74</v>
+      </c>
+      <c r="BJ92">
+        <v>1.96</v>
+      </c>
+      <c r="BK92">
+        <v>2.18</v>
+      </c>
+      <c r="BL92">
+        <v>1.58</v>
+      </c>
+      <c r="BM92">
+        <v>2.85</v>
+      </c>
+      <c r="BN92">
+        <v>1.36</v>
+      </c>
+      <c r="BO92">
+        <v>3.8</v>
+      </c>
+      <c r="BP92">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7806847</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45802.1875</v>
+      </c>
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>82</v>
+      </c>
+      <c r="P93" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q93">
+        <v>2.88</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>4.5</v>
+      </c>
+      <c r="T93">
+        <v>1.5</v>
+      </c>
+      <c r="U93">
+        <v>2.5</v>
+      </c>
+      <c r="V93">
+        <v>3.5</v>
+      </c>
+      <c r="W93">
+        <v>1.29</v>
+      </c>
+      <c r="X93">
+        <v>11</v>
+      </c>
+      <c r="Y93">
+        <v>1.05</v>
+      </c>
+      <c r="Z93">
+        <v>2.06</v>
+      </c>
+      <c r="AA93">
+        <v>2.99</v>
+      </c>
+      <c r="AB93">
+        <v>3.34</v>
+      </c>
+      <c r="AC93">
+        <v>1.09</v>
+      </c>
+      <c r="AD93">
+        <v>7</v>
+      </c>
+      <c r="AE93">
+        <v>1.48</v>
+      </c>
+      <c r="AF93">
+        <v>2.6</v>
+      </c>
+      <c r="AG93">
+        <v>2.3</v>
+      </c>
+      <c r="AH93">
+        <v>1.5</v>
+      </c>
+      <c r="AI93">
+        <v>2.1</v>
+      </c>
+      <c r="AJ93">
+        <v>1.67</v>
+      </c>
+      <c r="AK93">
+        <v>1.25</v>
+      </c>
+      <c r="AL93">
+        <v>1.3</v>
+      </c>
+      <c r="AM93">
+        <v>1.7</v>
+      </c>
+      <c r="AN93">
+        <v>1.86</v>
+      </c>
+      <c r="AO93">
+        <v>1.29</v>
+      </c>
+      <c r="AP93">
+        <v>1.63</v>
+      </c>
+      <c r="AQ93">
+        <v>1.5</v>
+      </c>
+      <c r="AR93">
+        <v>1.57</v>
+      </c>
+      <c r="AS93">
+        <v>0.93</v>
+      </c>
+      <c r="AT93">
+        <v>2.5</v>
+      </c>
+      <c r="AU93">
+        <v>3</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>4</v>
+      </c>
+      <c r="BA93">
+        <v>1</v>
+      </c>
+      <c r="BB93">
+        <v>2</v>
+      </c>
+      <c r="BC93">
+        <v>3</v>
+      </c>
+      <c r="BD93">
+        <v>1.72</v>
+      </c>
+      <c r="BE93">
+        <v>6.25</v>
+      </c>
+      <c r="BF93">
+        <v>2.4</v>
+      </c>
+      <c r="BG93">
+        <v>1.5</v>
+      </c>
+      <c r="BH93">
+        <v>2.33</v>
+      </c>
+      <c r="BI93">
+        <v>1.86</v>
+      </c>
+      <c r="BJ93">
+        <v>1.82</v>
+      </c>
+      <c r="BK93">
+        <v>2.35</v>
+      </c>
+      <c r="BL93">
+        <v>1.5</v>
+      </c>
+      <c r="BM93">
+        <v>3.15</v>
+      </c>
+      <c r="BN93">
+        <v>1.3</v>
+      </c>
+      <c r="BO93">
+        <v>4.2</v>
+      </c>
+      <c r="BP93">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,13 +442,13 @@
     <t>['23', '57']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
     <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['44']</t>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['33', '37', '72']</t>
+  </si>
+  <si>
+    <t>['17', '45+6', '66', '71']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1213,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1822,7 +1831,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -2028,7 +2037,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2312,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2724,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ9">
         <v>0.38</v>
@@ -3136,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ11">
         <v>1.75</v>
@@ -3551,7 +3560,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3757,7 +3766,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR14">
         <v>2.51</v>
@@ -4372,7 +4381,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>0.38</v>
@@ -4581,7 +4590,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>2.13</v>
@@ -4990,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5196,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21">
         <v>2.13</v>
@@ -5611,7 +5620,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>2.19</v>
@@ -6432,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>0.86</v>
@@ -6638,7 +6647,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -7053,7 +7062,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -7259,7 +7268,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.73</v>
@@ -7874,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
         <v>1.29</v>
@@ -8495,7 +8504,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ37">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR37">
         <v>1.26</v>
@@ -9316,10 +9325,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR41">
         <v>1.54</v>
@@ -9522,10 +9531,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.2</v>
@@ -9937,7 +9946,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>1.71</v>
@@ -10346,7 +10355,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>1.44</v>
@@ -11173,7 +11182,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.68</v>
@@ -11376,7 +11385,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -12409,7 +12418,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -13024,10 +13033,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR59">
         <v>1.49</v>
@@ -13233,7 +13242,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ60">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR60">
         <v>1.61</v>
@@ -13848,7 +13857,7 @@
         <v>1.2</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14388,7 +14397,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14466,7 +14475,7 @@
         <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ66">
         <v>0.86</v>
@@ -14672,10 +14681,10 @@
         <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR67">
         <v>2.01</v>
@@ -14881,7 +14890,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15293,7 +15302,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>2.06</v>
@@ -16320,7 +16329,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16938,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ78">
         <v>1.25</v>
@@ -17559,7 +17568,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ81">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR81">
         <v>1.49</v>
@@ -18177,7 +18186,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR84">
         <v>1.76</v>
@@ -18586,7 +18595,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
         <v>1.25</v>
@@ -18792,7 +18801,7 @@
         <v>2.43</v>
       </c>
       <c r="AP87">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>2.13</v>
@@ -19001,7 +19010,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR88">
         <v>1.52</v>
@@ -19207,7 +19216,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ89">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>1.57</v>
@@ -19822,7 +19831,7 @@
         <v>0.29</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92">
         <v>0.25</v>
@@ -20107,6 +20116,624 @@
       </c>
       <c r="BP93">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7806848</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45804.3125</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>82</v>
+      </c>
+      <c r="P94" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q94">
+        <v>2.8</v>
+      </c>
+      <c r="R94">
+        <v>2.1</v>
+      </c>
+      <c r="S94">
+        <v>3.5</v>
+      </c>
+      <c r="T94">
+        <v>1.38</v>
+      </c>
+      <c r="U94">
+        <v>2.8</v>
+      </c>
+      <c r="V94">
+        <v>2.8</v>
+      </c>
+      <c r="W94">
+        <v>1.38</v>
+      </c>
+      <c r="X94">
+        <v>6.85</v>
+      </c>
+      <c r="Y94">
+        <v>1.04</v>
+      </c>
+      <c r="Z94">
+        <v>2.13</v>
+      </c>
+      <c r="AA94">
+        <v>3.28</v>
+      </c>
+      <c r="AB94">
+        <v>2.9</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>9.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.3</v>
+      </c>
+      <c r="AF94">
+        <v>3.45</v>
+      </c>
+      <c r="AG94">
+        <v>1.9</v>
+      </c>
+      <c r="AH94">
+        <v>1.8</v>
+      </c>
+      <c r="AI94">
+        <v>1.7</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.35</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.62</v>
+      </c>
+      <c r="AN94">
+        <v>1.71</v>
+      </c>
+      <c r="AO94">
+        <v>0.43</v>
+      </c>
+      <c r="AP94">
+        <v>1.5</v>
+      </c>
+      <c r="AQ94">
+        <v>0.75</v>
+      </c>
+      <c r="AR94">
+        <v>1.88</v>
+      </c>
+      <c r="AS94">
+        <v>1.59</v>
+      </c>
+      <c r="AT94">
+        <v>3.47</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>4</v>
+      </c>
+      <c r="AX94">
+        <v>7</v>
+      </c>
+      <c r="AY94">
+        <v>10</v>
+      </c>
+      <c r="AZ94">
+        <v>14</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>9</v>
+      </c>
+      <c r="BD94">
+        <v>1.81</v>
+      </c>
+      <c r="BE94">
+        <v>6.4</v>
+      </c>
+      <c r="BF94">
+        <v>2.23</v>
+      </c>
+      <c r="BG94">
+        <v>1.4</v>
+      </c>
+      <c r="BH94">
+        <v>2.7</v>
+      </c>
+      <c r="BI94">
+        <v>1.67</v>
+      </c>
+      <c r="BJ94">
+        <v>2.07</v>
+      </c>
+      <c r="BK94">
+        <v>2.07</v>
+      </c>
+      <c r="BL94">
+        <v>1.67</v>
+      </c>
+      <c r="BM94">
+        <v>2.65</v>
+      </c>
+      <c r="BN94">
+        <v>1.41</v>
+      </c>
+      <c r="BO94">
+        <v>3.55</v>
+      </c>
+      <c r="BP94">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7806849</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45804.3125</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>142</v>
+      </c>
+      <c r="P95" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q95">
+        <v>2.62</v>
+      </c>
+      <c r="R95">
+        <v>2.15</v>
+      </c>
+      <c r="S95">
+        <v>3.65</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>2.9</v>
+      </c>
+      <c r="V95">
+        <v>2.65</v>
+      </c>
+      <c r="W95">
+        <v>1.42</v>
+      </c>
+      <c r="X95">
+        <v>6.75</v>
+      </c>
+      <c r="Y95">
+        <v>1.04</v>
+      </c>
+      <c r="Z95">
+        <v>2.01</v>
+      </c>
+      <c r="AA95">
+        <v>3.37</v>
+      </c>
+      <c r="AB95">
+        <v>3.07</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>9.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.28</v>
+      </c>
+      <c r="AF95">
+        <v>3.55</v>
+      </c>
+      <c r="AG95">
+        <v>1.82</v>
+      </c>
+      <c r="AH95">
+        <v>1.88</v>
+      </c>
+      <c r="AI95">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95">
+        <v>2</v>
+      </c>
+      <c r="AK95">
+        <v>1.3</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.7</v>
+      </c>
+      <c r="AN95">
+        <v>1.75</v>
+      </c>
+      <c r="AO95">
+        <v>1.29</v>
+      </c>
+      <c r="AP95">
+        <v>1.56</v>
+      </c>
+      <c r="AQ95">
+        <v>1.5</v>
+      </c>
+      <c r="AR95">
+        <v>1.37</v>
+      </c>
+      <c r="AS95">
+        <v>1.53</v>
+      </c>
+      <c r="AT95">
+        <v>2.9</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
+        <v>14</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>23</v>
+      </c>
+      <c r="AZ95">
+        <v>12</v>
+      </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>4</v>
+      </c>
+      <c r="BD95">
+        <v>1.88</v>
+      </c>
+      <c r="BE95">
+        <v>6.1</v>
+      </c>
+      <c r="BF95">
+        <v>2.17</v>
+      </c>
+      <c r="BG95">
+        <v>1.53</v>
+      </c>
+      <c r="BH95">
+        <v>2.32</v>
+      </c>
+      <c r="BI95">
+        <v>1.9</v>
+      </c>
+      <c r="BJ95">
+        <v>1.79</v>
+      </c>
+      <c r="BK95">
+        <v>2.43</v>
+      </c>
+      <c r="BL95">
+        <v>1.48</v>
+      </c>
+      <c r="BM95">
+        <v>3.2</v>
+      </c>
+      <c r="BN95">
+        <v>1.29</v>
+      </c>
+      <c r="BO95">
+        <v>4.35</v>
+      </c>
+      <c r="BP95">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7806850</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45804.3125</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>82</v>
+      </c>
+      <c r="P96" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q96">
+        <v>4</v>
+      </c>
+      <c r="R96">
+        <v>2.25</v>
+      </c>
+      <c r="S96">
+        <v>2.35</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3</v>
+      </c>
+      <c r="V96">
+        <v>2.6</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>6.4</v>
+      </c>
+      <c r="Y96">
+        <v>1.05</v>
+      </c>
+      <c r="Z96">
+        <v>3.72</v>
+      </c>
+      <c r="AA96">
+        <v>3.6</v>
+      </c>
+      <c r="AB96">
+        <v>1.74</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.25</v>
+      </c>
+      <c r="AF96">
+        <v>3.9</v>
+      </c>
+      <c r="AG96">
+        <v>1.75</v>
+      </c>
+      <c r="AH96">
+        <v>1.95</v>
+      </c>
+      <c r="AI96">
+        <v>1.7</v>
+      </c>
+      <c r="AJ96">
+        <v>2</v>
+      </c>
+      <c r="AK96">
+        <v>1.93</v>
+      </c>
+      <c r="AL96">
+        <v>1.2</v>
+      </c>
+      <c r="AM96">
+        <v>1.25</v>
+      </c>
+      <c r="AN96">
+        <v>1.29</v>
+      </c>
+      <c r="AO96">
+        <v>2.29</v>
+      </c>
+      <c r="AP96">
+        <v>1.13</v>
+      </c>
+      <c r="AQ96">
+        <v>2.38</v>
+      </c>
+      <c r="AR96">
+        <v>1.86</v>
+      </c>
+      <c r="AS96">
+        <v>1.19</v>
+      </c>
+      <c r="AT96">
+        <v>3.05</v>
+      </c>
+      <c r="AU96">
+        <v>2</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>15</v>
+      </c>
+      <c r="AX96">
+        <v>12</v>
+      </c>
+      <c r="AY96">
+        <v>25</v>
+      </c>
+      <c r="AZ96">
+        <v>22</v>
+      </c>
+      <c r="BA96">
+        <v>5</v>
+      </c>
+      <c r="BB96">
+        <v>9</v>
+      </c>
+      <c r="BC96">
+        <v>14</v>
+      </c>
+      <c r="BD96">
+        <v>2.28</v>
+      </c>
+      <c r="BE96">
+        <v>6.4</v>
+      </c>
+      <c r="BF96">
+        <v>1.78</v>
+      </c>
+      <c r="BG96">
+        <v>1.4</v>
+      </c>
+      <c r="BH96">
+        <v>2.7</v>
+      </c>
+      <c r="BI96">
+        <v>1.67</v>
+      </c>
+      <c r="BJ96">
+        <v>2.07</v>
+      </c>
+      <c r="BK96">
+        <v>2.07</v>
+      </c>
+      <c r="BL96">
+        <v>1.67</v>
+      </c>
+      <c r="BM96">
+        <v>2.65</v>
+      </c>
+      <c r="BN96">
+        <v>1.42</v>
+      </c>
+      <c r="BO96">
+        <v>3.55</v>
+      </c>
+      <c r="BP96">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,9 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -593,6 +596,9 @@
   </si>
   <si>
     <t>['17', '45+6', '66', '71']</t>
+  </si>
+  <si>
+    <t>['21', '26', '89']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1219,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1500,7 +1506,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1703,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>0.38</v>
@@ -1831,7 +1837,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -1912,7 +1918,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2243,7 +2249,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2449,7 +2455,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2655,7 +2661,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2942,7 +2948,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ10">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3067,7 +3073,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3148,7 +3154,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3273,7 +3279,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3479,7 +3485,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3557,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4175,10 +4181,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>1.8</v>
@@ -4587,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ18">
         <v>0.75</v>
@@ -5002,7 +5008,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5127,7 +5133,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5333,7 +5339,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5951,7 +5957,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6157,7 +6163,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6235,10 +6241,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR26">
         <v>1.64</v>
@@ -6363,7 +6369,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6444,7 +6450,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>2.02</v>
@@ -6569,7 +6575,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6650,7 +6656,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -6853,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ29">
         <v>1.29</v>
@@ -6981,7 +6987,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7187,7 +7193,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7265,7 +7271,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7393,7 +7399,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7680,7 +7686,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7805,7 +7811,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8295,7 +8301,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8629,7 +8635,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8916,7 +8922,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -9119,7 +9125,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
         <v>0.25</v>
@@ -9247,7 +9253,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9453,7 +9459,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9943,7 +9949,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10149,7 +10155,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ45">
         <v>0.25</v>
@@ -10277,7 +10283,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10483,7 +10489,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10770,7 +10776,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR48">
         <v>1.68</v>
@@ -10973,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
         <v>1.29</v>
@@ -11101,7 +11107,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11307,7 +11313,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11388,7 +11394,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -11513,7 +11519,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11719,7 +11725,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11925,7 +11931,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12003,7 +12009,7 @@
         <v>2.6</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>2.13</v>
@@ -12131,7 +12137,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12543,7 +12549,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12749,7 +12755,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12830,7 +12836,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12955,7 +12961,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13161,7 +13167,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13448,7 +13454,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR61">
         <v>1.8</v>
@@ -13651,10 +13657,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR62">
         <v>1.73</v>
@@ -14191,7 +14197,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14397,7 +14403,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14478,7 +14484,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ66">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.46</v>
@@ -14603,7 +14609,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14809,7 +14815,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15093,7 +15099,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
         <v>0.38</v>
@@ -15221,7 +15227,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15505,7 +15511,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
         <v>1.44</v>
@@ -15839,7 +15845,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16045,7 +16051,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16126,7 +16132,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16251,7 +16257,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16663,7 +16669,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16950,7 +16956,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17075,7 +17081,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q79">
         <v>4.33</v>
@@ -17156,7 +17162,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR79">
         <v>1.5</v>
@@ -17281,7 +17287,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17359,7 +17365,7 @@
         <v>1.43</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
         <v>1.44</v>
@@ -17487,7 +17493,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17565,7 +17571,7 @@
         <v>2.4</v>
       </c>
       <c r="AP81">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ81">
         <v>2.38</v>
@@ -17774,7 +17780,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ82">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -17899,7 +17905,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -17977,10 +17983,10 @@
         <v>1.86</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
         <v>1.46</v>
@@ -18105,7 +18111,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q84">
         <v>2.4</v>
@@ -18183,7 +18189,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
         <v>0.75</v>
@@ -18517,7 +18523,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18598,7 +18604,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR86">
         <v>1.94</v>
@@ -19135,7 +19141,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q89">
         <v>3.4</v>
@@ -19341,7 +19347,7 @@
         <v>139</v>
       </c>
       <c r="P90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19547,7 +19553,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q91">
         <v>2.55</v>
@@ -19959,7 +19965,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20037,7 +20043,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20165,7 +20171,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q94">
         <v>2.8</v>
@@ -20371,7 +20377,7 @@
         <v>142</v>
       </c>
       <c r="P95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q95">
         <v>2.62</v>
@@ -20577,7 +20583,7 @@
         <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20734,6 +20740,624 @@
       </c>
       <c r="BP96">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7806851</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45805.3125</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>82</v>
+      </c>
+      <c r="P97" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q97">
+        <v>3.1</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>3.2</v>
+      </c>
+      <c r="T97">
+        <v>1.41</v>
+      </c>
+      <c r="U97">
+        <v>2.65</v>
+      </c>
+      <c r="V97">
+        <v>2.85</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>7.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>2.59</v>
+      </c>
+      <c r="AA97">
+        <v>3.27</v>
+      </c>
+      <c r="AB97">
+        <v>2.34</v>
+      </c>
+      <c r="AC97">
+        <v>1.06</v>
+      </c>
+      <c r="AD97">
+        <v>8.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.35</v>
+      </c>
+      <c r="AF97">
+        <v>3.1</v>
+      </c>
+      <c r="AG97">
+        <v>1.89</v>
+      </c>
+      <c r="AH97">
+        <v>1.81</v>
+      </c>
+      <c r="AI97">
+        <v>1.8</v>
+      </c>
+      <c r="AJ97">
+        <v>1.88</v>
+      </c>
+      <c r="AK97">
+        <v>1.44</v>
+      </c>
+      <c r="AL97">
+        <v>1.33</v>
+      </c>
+      <c r="AM97">
+        <v>1.47</v>
+      </c>
+      <c r="AN97">
+        <v>1.83</v>
+      </c>
+      <c r="AO97">
+        <v>1.25</v>
+      </c>
+      <c r="AP97">
+        <v>1.57</v>
+      </c>
+      <c r="AQ97">
+        <v>1.44</v>
+      </c>
+      <c r="AR97">
+        <v>1.74</v>
+      </c>
+      <c r="AS97">
+        <v>1.79</v>
+      </c>
+      <c r="AT97">
+        <v>3.53</v>
+      </c>
+      <c r="AU97">
+        <v>7</v>
+      </c>
+      <c r="AV97">
+        <v>8</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>2</v>
+      </c>
+      <c r="AY97">
+        <v>24</v>
+      </c>
+      <c r="AZ97">
+        <v>11</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BC97">
+        <v>9</v>
+      </c>
+      <c r="BD97">
+        <v>1.81</v>
+      </c>
+      <c r="BE97">
+        <v>6.25</v>
+      </c>
+      <c r="BF97">
+        <v>2.23</v>
+      </c>
+      <c r="BG97">
+        <v>1.45</v>
+      </c>
+      <c r="BH97">
+        <v>2.55</v>
+      </c>
+      <c r="BI97">
+        <v>1.74</v>
+      </c>
+      <c r="BJ97">
+        <v>1.97</v>
+      </c>
+      <c r="BK97">
+        <v>2.18</v>
+      </c>
+      <c r="BL97">
+        <v>1.58</v>
+      </c>
+      <c r="BM97">
+        <v>2.8</v>
+      </c>
+      <c r="BN97">
+        <v>1.36</v>
+      </c>
+      <c r="BO97">
+        <v>3.7</v>
+      </c>
+      <c r="BP97">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7806852</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45805.3125</v>
+      </c>
+      <c r="F98">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>125</v>
+      </c>
+      <c r="P98" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q98">
+        <v>2.75</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>3.8</v>
+      </c>
+      <c r="T98">
+        <v>1.42</v>
+      </c>
+      <c r="U98">
+        <v>2.62</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.33</v>
+      </c>
+      <c r="X98">
+        <v>8.1</v>
+      </c>
+      <c r="Y98">
+        <v>1.02</v>
+      </c>
+      <c r="Z98">
+        <v>2.08</v>
+      </c>
+      <c r="AA98">
+        <v>3.17</v>
+      </c>
+      <c r="AB98">
+        <v>3.09</v>
+      </c>
+      <c r="AC98">
+        <v>1.06</v>
+      </c>
+      <c r="AD98">
+        <v>8.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.36</v>
+      </c>
+      <c r="AF98">
+        <v>3.1</v>
+      </c>
+      <c r="AG98">
+        <v>2.05</v>
+      </c>
+      <c r="AH98">
+        <v>1.68</v>
+      </c>
+      <c r="AI98">
+        <v>1.83</v>
+      </c>
+      <c r="AJ98">
+        <v>1.85</v>
+      </c>
+      <c r="AK98">
+        <v>1.3</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.67</v>
+      </c>
+      <c r="AN98">
+        <v>1.29</v>
+      </c>
+      <c r="AO98">
+        <v>0.86</v>
+      </c>
+      <c r="AP98">
+        <v>1.13</v>
+      </c>
+      <c r="AQ98">
+        <v>1.13</v>
+      </c>
+      <c r="AR98">
+        <v>1.5</v>
+      </c>
+      <c r="AS98">
+        <v>1.44</v>
+      </c>
+      <c r="AT98">
+        <v>2.94</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>6</v>
+      </c>
+      <c r="AY98">
+        <v>13</v>
+      </c>
+      <c r="AZ98">
+        <v>13</v>
+      </c>
+      <c r="BA98">
+        <v>9</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>11</v>
+      </c>
+      <c r="BD98">
+        <v>1.77</v>
+      </c>
+      <c r="BE98">
+        <v>6.1</v>
+      </c>
+      <c r="BF98">
+        <v>2.32</v>
+      </c>
+      <c r="BG98">
+        <v>1.58</v>
+      </c>
+      <c r="BH98">
+        <v>2.18</v>
+      </c>
+      <c r="BI98">
+        <v>1.98</v>
+      </c>
+      <c r="BJ98">
+        <v>1.73</v>
+      </c>
+      <c r="BK98">
+        <v>2.55</v>
+      </c>
+      <c r="BL98">
+        <v>1.44</v>
+      </c>
+      <c r="BM98">
+        <v>3.4</v>
+      </c>
+      <c r="BN98">
+        <v>1.26</v>
+      </c>
+      <c r="BO98">
+        <v>4.6</v>
+      </c>
+      <c r="BP98">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7806853</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45805.3125</v>
+      </c>
+      <c r="F99">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>143</v>
+      </c>
+      <c r="P99" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q99">
+        <v>3.4</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>1.42</v>
+      </c>
+      <c r="U99">
+        <v>2.62</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>8.1</v>
+      </c>
+      <c r="Y99">
+        <v>1.02</v>
+      </c>
+      <c r="Z99">
+        <v>2.71</v>
+      </c>
+      <c r="AA99">
+        <v>3.14</v>
+      </c>
+      <c r="AB99">
+        <v>2.31</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>8.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.36</v>
+      </c>
+      <c r="AF99">
+        <v>3.1</v>
+      </c>
+      <c r="AG99">
+        <v>2</v>
+      </c>
+      <c r="AH99">
+        <v>1.67</v>
+      </c>
+      <c r="AI99">
+        <v>1.83</v>
+      </c>
+      <c r="AJ99">
+        <v>1.85</v>
+      </c>
+      <c r="AK99">
+        <v>1.53</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.4</v>
+      </c>
+      <c r="AN99">
+        <v>1.63</v>
+      </c>
+      <c r="AO99">
+        <v>1.75</v>
+      </c>
+      <c r="AP99">
+        <v>1.56</v>
+      </c>
+      <c r="AQ99">
+        <v>1.67</v>
+      </c>
+      <c r="AR99">
+        <v>1.53</v>
+      </c>
+      <c r="AS99">
+        <v>1.82</v>
+      </c>
+      <c r="AT99">
+        <v>3.35</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>16</v>
+      </c>
+      <c r="AX99">
+        <v>8</v>
+      </c>
+      <c r="AY99">
+        <v>25</v>
+      </c>
+      <c r="AZ99">
+        <v>15</v>
+      </c>
+      <c r="BA99">
+        <v>7</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>8</v>
+      </c>
+      <c r="BD99">
+        <v>2.1</v>
+      </c>
+      <c r="BE99">
+        <v>6.4</v>
+      </c>
+      <c r="BF99">
+        <v>1.9</v>
+      </c>
+      <c r="BG99">
+        <v>1.45</v>
+      </c>
+      <c r="BH99">
+        <v>2.55</v>
+      </c>
+      <c r="BI99">
+        <v>1.74</v>
+      </c>
+      <c r="BJ99">
+        <v>1.97</v>
+      </c>
+      <c r="BK99">
+        <v>2.18</v>
+      </c>
+      <c r="BL99">
+        <v>1.58</v>
+      </c>
+      <c r="BM99">
+        <v>2.8</v>
+      </c>
+      <c r="BN99">
+        <v>1.36</v>
+      </c>
+      <c r="BO99">
+        <v>3.8</v>
+      </c>
+      <c r="BP99">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,12 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['26', '86', '90+8']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -599,6 +605,15 @@
   </si>
   <si>
     <t>['21', '26', '89']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['23', '50', '68']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1234,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1300,7 +1315,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ2">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1837,7 +1852,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -2121,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
         <v>1.44</v>
@@ -2249,7 +2264,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2455,7 +2470,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2661,7 +2676,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2945,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ10">
         <v>1.13</v>
@@ -3073,7 +3088,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3154,7 +3169,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3279,7 +3294,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3357,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ12">
         <v>1.29</v>
@@ -3485,7 +3500,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -4596,7 +4611,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>2.13</v>
@@ -4799,7 +4814,7 @@
         <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
         <v>1.44</v>
@@ -5133,7 +5148,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5214,7 +5229,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ21">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.94</v>
@@ -5339,7 +5354,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5417,7 +5432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>1.44</v>
@@ -5626,7 +5641,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>2.19</v>
@@ -5829,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5957,7 +5972,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6038,7 +6053,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.2</v>
@@ -6163,7 +6178,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6369,7 +6384,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6575,7 +6590,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6656,7 +6671,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -6987,7 +7002,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7065,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7193,7 +7208,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7399,7 +7414,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7477,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32">
         <v>0.25</v>
@@ -7686,7 +7701,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7811,7 +7826,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8507,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
         <v>2.38</v>
@@ -8635,7 +8650,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -8716,7 +8731,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>2.21</v>
@@ -9253,7 +9268,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9459,7 +9474,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9743,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -9952,7 +9967,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.71</v>
@@ -10283,7 +10298,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10489,7 +10504,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10567,10 +10582,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>0.99</v>
@@ -11107,7 +11122,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11185,10 +11200,10 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.68</v>
@@ -11313,7 +11328,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11394,7 +11409,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -11519,7 +11534,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11725,7 +11740,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11803,7 +11818,7 @@
         <v>0.25</v>
       </c>
       <c r="AP53">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>0.38</v>
@@ -11931,7 +11946,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12012,7 +12027,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.88</v>
@@ -12137,7 +12152,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12215,7 +12230,7 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ55">
         <v>1.29</v>
@@ -12549,7 +12564,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12627,7 +12642,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ57">
         <v>0.25</v>
@@ -12755,7 +12770,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12833,10 +12848,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12961,7 +12976,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13167,7 +13182,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13245,10 +13260,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.61</v>
@@ -13660,7 +13675,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.73</v>
@@ -14197,7 +14212,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14403,7 +14418,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14609,7 +14624,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14690,7 +14705,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>2.01</v>
@@ -14815,7 +14830,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14893,7 +14908,7 @@
         <v>2.25</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68">
         <v>2.38</v>
@@ -15227,7 +15242,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15717,10 +15732,10 @@
         <v>2.67</v>
       </c>
       <c r="AP72">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -15845,7 +15860,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16051,7 +16066,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16129,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
         <v>1.44</v>
@@ -16257,7 +16272,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16669,7 +16684,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16747,7 +16762,7 @@
         <v>0.17</v>
       </c>
       <c r="AP77">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ77">
         <v>0.25</v>
@@ -17081,7 +17096,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q79">
         <v>4.33</v>
@@ -17162,7 +17177,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>1.5</v>
@@ -17287,7 +17302,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17493,7 +17508,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17777,7 +17792,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -17905,7 +17920,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -17986,7 +18001,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.46</v>
@@ -18111,7 +18126,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q84">
         <v>2.4</v>
@@ -18192,7 +18207,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.76</v>
@@ -18523,7 +18538,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18810,7 +18825,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.6</v>
@@ -19141,7 +19156,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q89">
         <v>3.4</v>
@@ -19219,7 +19234,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -19347,7 +19362,7 @@
         <v>139</v>
       </c>
       <c r="P90" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19425,7 +19440,7 @@
         <v>0.29</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ90">
         <v>0.38</v>
@@ -19553,7 +19568,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q91">
         <v>2.55</v>
@@ -19965,7 +19980,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20171,7 +20186,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q94">
         <v>2.8</v>
@@ -20252,7 +20267,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.88</v>
@@ -20377,7 +20392,7 @@
         <v>142</v>
       </c>
       <c r="P95" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q95">
         <v>2.62</v>
@@ -20583,7 +20598,7 @@
         <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20789,7 +20804,7 @@
         <v>82</v>
       </c>
       <c r="P97" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -20995,7 +21010,7 @@
         <v>125</v>
       </c>
       <c r="P98" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21201,7 +21216,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21282,7 +21297,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.53</v>
@@ -21358,6 +21373,624 @@
       </c>
       <c r="BP99">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7806856</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s">
+        <v>77</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>134</v>
+      </c>
+      <c r="P100" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q100">
+        <v>3.3</v>
+      </c>
+      <c r="R100">
+        <v>2.05</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
+        <v>1.4</v>
+      </c>
+      <c r="U100">
+        <v>2.75</v>
+      </c>
+      <c r="V100">
+        <v>2.8</v>
+      </c>
+      <c r="W100">
+        <v>1.38</v>
+      </c>
+      <c r="X100">
+        <v>7.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.03</v>
+      </c>
+      <c r="Z100">
+        <v>2.64</v>
+      </c>
+      <c r="AA100">
+        <v>3.23</v>
+      </c>
+      <c r="AB100">
+        <v>2.32</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9</v>
+      </c>
+      <c r="AE100">
+        <v>1.33</v>
+      </c>
+      <c r="AF100">
+        <v>3.3</v>
+      </c>
+      <c r="AG100">
+        <v>1.94</v>
+      </c>
+      <c r="AH100">
+        <v>1.76</v>
+      </c>
+      <c r="AI100">
+        <v>1.73</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>1.53</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.42</v>
+      </c>
+      <c r="AN100">
+        <v>1.22</v>
+      </c>
+      <c r="AO100">
+        <v>2.13</v>
+      </c>
+      <c r="AP100">
+        <v>1.2</v>
+      </c>
+      <c r="AQ100">
+        <v>2</v>
+      </c>
+      <c r="AR100">
+        <v>1.51</v>
+      </c>
+      <c r="AS100">
+        <v>1.25</v>
+      </c>
+      <c r="AT100">
+        <v>2.76</v>
+      </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>17</v>
+      </c>
+      <c r="AZ100">
+        <v>9</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
+        <v>5</v>
+      </c>
+      <c r="BD100">
+        <v>1.98</v>
+      </c>
+      <c r="BE100">
+        <v>6.1</v>
+      </c>
+      <c r="BF100">
+        <v>2</v>
+      </c>
+      <c r="BG100">
+        <v>1.57</v>
+      </c>
+      <c r="BH100">
+        <v>2.23</v>
+      </c>
+      <c r="BI100">
+        <v>1.95</v>
+      </c>
+      <c r="BJ100">
+        <v>1.75</v>
+      </c>
+      <c r="BK100">
+        <v>2.5</v>
+      </c>
+      <c r="BL100">
+        <v>1.46</v>
+      </c>
+      <c r="BM100">
+        <v>3.3</v>
+      </c>
+      <c r="BN100">
+        <v>1.27</v>
+      </c>
+      <c r="BO100">
+        <v>4.4</v>
+      </c>
+      <c r="BP100">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7806855</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>73</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>144</v>
+      </c>
+      <c r="P101" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>3.3</v>
+      </c>
+      <c r="T101">
+        <v>1.4</v>
+      </c>
+      <c r="U101">
+        <v>2.75</v>
+      </c>
+      <c r="V101">
+        <v>2.8</v>
+      </c>
+      <c r="W101">
+        <v>1.38</v>
+      </c>
+      <c r="X101">
+        <v>7.5</v>
+      </c>
+      <c r="Y101">
+        <v>1.03</v>
+      </c>
+      <c r="Z101">
+        <v>2.37</v>
+      </c>
+      <c r="AA101">
+        <v>3.29</v>
+      </c>
+      <c r="AB101">
+        <v>2.54</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
+        <v>9.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.28</v>
+      </c>
+      <c r="AF101">
+        <v>3.5</v>
+      </c>
+      <c r="AG101">
+        <v>1.87</v>
+      </c>
+      <c r="AH101">
+        <v>1.83</v>
+      </c>
+      <c r="AI101">
+        <v>1.67</v>
+      </c>
+      <c r="AJ101">
+        <v>2.05</v>
+      </c>
+      <c r="AK101">
+        <v>1.42</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.55</v>
+      </c>
+      <c r="AN101">
+        <v>1.63</v>
+      </c>
+      <c r="AO101">
+        <v>1.67</v>
+      </c>
+      <c r="AP101">
+        <v>1.78</v>
+      </c>
+      <c r="AQ101">
+        <v>1.5</v>
+      </c>
+      <c r="AR101">
+        <v>1.6</v>
+      </c>
+      <c r="AS101">
+        <v>1.78</v>
+      </c>
+      <c r="AT101">
+        <v>3.38</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>3</v>
+      </c>
+      <c r="AW101">
+        <v>2</v>
+      </c>
+      <c r="AX101">
+        <v>6</v>
+      </c>
+      <c r="AY101">
+        <v>9</v>
+      </c>
+      <c r="AZ101">
+        <v>10</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>6</v>
+      </c>
+      <c r="BC101">
+        <v>10</v>
+      </c>
+      <c r="BD101">
+        <v>1.93</v>
+      </c>
+      <c r="BE101">
+        <v>6.4</v>
+      </c>
+      <c r="BF101">
+        <v>2.07</v>
+      </c>
+      <c r="BG101">
+        <v>1.44</v>
+      </c>
+      <c r="BH101">
+        <v>2.55</v>
+      </c>
+      <c r="BI101">
+        <v>1.73</v>
+      </c>
+      <c r="BJ101">
+        <v>1.98</v>
+      </c>
+      <c r="BK101">
+        <v>2.17</v>
+      </c>
+      <c r="BL101">
+        <v>1.6</v>
+      </c>
+      <c r="BM101">
+        <v>2.8</v>
+      </c>
+      <c r="BN101">
+        <v>1.38</v>
+      </c>
+      <c r="BO101">
+        <v>3.7</v>
+      </c>
+      <c r="BP101">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7806854</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102" t="s">
+        <v>145</v>
+      </c>
+      <c r="P102" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q102">
+        <v>2.3</v>
+      </c>
+      <c r="R102">
+        <v>2.1</v>
+      </c>
+      <c r="S102">
+        <v>4.8</v>
+      </c>
+      <c r="T102">
+        <v>1.41</v>
+      </c>
+      <c r="U102">
+        <v>2.65</v>
+      </c>
+      <c r="V102">
+        <v>2.9</v>
+      </c>
+      <c r="W102">
+        <v>1.35</v>
+      </c>
+      <c r="X102">
+        <v>7.75</v>
+      </c>
+      <c r="Y102">
+        <v>1.07</v>
+      </c>
+      <c r="Z102">
+        <v>1.59</v>
+      </c>
+      <c r="AA102">
+        <v>3.47</v>
+      </c>
+      <c r="AB102">
+        <v>5</v>
+      </c>
+      <c r="AC102">
+        <v>1.06</v>
+      </c>
+      <c r="AD102">
+        <v>8.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.35</v>
+      </c>
+      <c r="AF102">
+        <v>3.1</v>
+      </c>
+      <c r="AG102">
+        <v>1.95</v>
+      </c>
+      <c r="AH102">
+        <v>1.7</v>
+      </c>
+      <c r="AI102">
+        <v>2</v>
+      </c>
+      <c r="AJ102">
+        <v>1.71</v>
+      </c>
+      <c r="AK102">
+        <v>1.18</v>
+      </c>
+      <c r="AL102">
+        <v>1.26</v>
+      </c>
+      <c r="AM102">
+        <v>2.05</v>
+      </c>
+      <c r="AN102">
+        <v>1.29</v>
+      </c>
+      <c r="AO102">
+        <v>0.75</v>
+      </c>
+      <c r="AP102">
+        <v>1.13</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>1.66</v>
+      </c>
+      <c r="AS102">
+        <v>1.53</v>
+      </c>
+      <c r="AT102">
+        <v>3.19</v>
+      </c>
+      <c r="AU102">
+        <v>11</v>
+      </c>
+      <c r="AV102">
+        <v>6</v>
+      </c>
+      <c r="AW102">
+        <v>16</v>
+      </c>
+      <c r="AX102">
+        <v>3</v>
+      </c>
+      <c r="AY102">
+        <v>37</v>
+      </c>
+      <c r="AZ102">
+        <v>9</v>
+      </c>
+      <c r="BA102">
+        <v>13</v>
+      </c>
+      <c r="BB102">
+        <v>2</v>
+      </c>
+      <c r="BC102">
+        <v>15</v>
+      </c>
+      <c r="BD102">
+        <v>1.54</v>
+      </c>
+      <c r="BE102">
+        <v>7</v>
+      </c>
+      <c r="BF102">
+        <v>2.7</v>
+      </c>
+      <c r="BG102">
+        <v>1.34</v>
+      </c>
+      <c r="BH102">
+        <v>2.9</v>
+      </c>
+      <c r="BI102">
+        <v>1.58</v>
+      </c>
+      <c r="BJ102">
+        <v>2.18</v>
+      </c>
+      <c r="BK102">
+        <v>1.95</v>
+      </c>
+      <c r="BL102">
+        <v>1.75</v>
+      </c>
+      <c r="BM102">
+        <v>2.45</v>
+      </c>
+      <c r="BN102">
+        <v>1.48</v>
+      </c>
+      <c r="BO102">
+        <v>3.2</v>
+      </c>
+      <c r="BP102">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,15 @@
     <t>['70']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['45+2', '69']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['32', '87', '90']</t>
   </si>
   <si>
@@ -521,9 +530,6 @@
   </si>
   <si>
     <t>['42']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['17', '47']</t>
@@ -975,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1240,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1312,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1727,7 +1733,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1852,7 +1858,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2.1</v>
@@ -2264,7 +2270,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2342,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2470,7 +2476,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2676,7 +2682,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>3.35</v>
@@ -2754,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ9">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR9">
         <v>1.95</v>
@@ -3088,7 +3094,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>3.45</v>
@@ -3294,7 +3300,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3375,7 +3381,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>1.8</v>
@@ -3500,7 +3506,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2.95</v>
@@ -3990,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15">
         <v>0.25</v>
@@ -4405,7 +4411,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR17">
         <v>1.3</v>
@@ -5148,7 +5154,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>3.1</v>
@@ -5226,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5354,7 +5360,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5847,7 +5853,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.82</v>
@@ -5972,7 +5978,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6178,7 +6184,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6384,7 +6390,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6462,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
         <v>1.13</v>
@@ -6590,7 +6596,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6874,10 +6880,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7002,7 +7008,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7208,7 +7214,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7414,7 +7420,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7698,7 +7704,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7826,7 +7832,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7907,7 +7913,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.58</v>
@@ -8113,7 +8119,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8316,10 +8322,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8650,7 +8656,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>2.45</v>
@@ -9140,7 +9146,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>0.25</v>
@@ -9268,7 +9274,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9474,7 +9480,7 @@
         <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9761,7 +9767,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.25</v>
@@ -10298,7 +10304,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>4.33</v>
@@ -10504,7 +10510,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10788,7 +10794,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48">
         <v>1.13</v>
@@ -10997,7 +11003,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.43</v>
@@ -11122,7 +11128,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11328,7 +11334,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -11406,7 +11412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11534,7 +11540,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11615,7 +11621,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>2.04</v>
@@ -11740,7 +11746,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11821,7 +11827,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -11946,7 +11952,7 @@
         <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12024,7 +12030,7 @@
         <v>2.6</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12152,7 +12158,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12233,7 +12239,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12564,7 +12570,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12770,7 +12776,7 @@
         <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12976,7 +12982,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13182,7 +13188,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>2.7</v>
@@ -13466,7 +13472,7 @@
         <v>1.25</v>
       </c>
       <c r="AP61">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ61">
         <v>1.44</v>
@@ -13672,7 +13678,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -13881,7 +13887,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.45</v>
@@ -14087,7 +14093,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>2.07</v>
@@ -14212,7 +14218,7 @@
         <v>105</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14290,7 +14296,7 @@
         <v>1.4</v>
       </c>
       <c r="AP65">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ65">
         <v>1.44</v>
@@ -14418,7 +14424,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14624,7 +14630,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14702,7 +14708,7 @@
         <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14830,7 +14836,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -15117,7 +15123,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15242,7 +15248,7 @@
         <v>116</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>2.38</v>
@@ -15860,7 +15866,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15941,7 +15947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.33</v>
@@ -16066,7 +16072,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -16272,7 +16278,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16556,10 +16562,10 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ76">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -16684,7 +16690,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17096,7 +17102,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>4.33</v>
@@ -17302,7 +17308,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17508,7 +17514,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17920,7 +17926,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18126,7 +18132,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q84">
         <v>2.4</v>
@@ -18204,7 +18210,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18410,10 +18416,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>1.61</v>
@@ -18538,7 +18544,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18616,7 +18622,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ86">
         <v>1.44</v>
@@ -19156,7 +19162,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q89">
         <v>3.4</v>
@@ -19362,7 +19368,7 @@
         <v>139</v>
       </c>
       <c r="P90" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19443,7 +19449,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ90">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR90">
         <v>1.6</v>
@@ -19568,7 +19574,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q91">
         <v>2.55</v>
@@ -19980,7 +19986,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>2.88</v>
@@ -20061,7 +20067,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20186,7 +20192,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q94">
         <v>2.8</v>
@@ -20392,7 +20398,7 @@
         <v>142</v>
       </c>
       <c r="P95" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q95">
         <v>2.62</v>
@@ -20598,7 +20604,7 @@
         <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20676,7 +20682,7 @@
         <v>2.29</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ96">
         <v>2.38</v>
@@ -20804,7 +20810,7 @@
         <v>82</v>
       </c>
       <c r="P97" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -20882,7 +20888,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.44</v>
@@ -21010,7 +21016,7 @@
         <v>125</v>
       </c>
       <c r="P98" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21216,7 +21222,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21422,7 +21428,7 @@
         <v>134</v>
       </c>
       <c r="P100" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q100">
         <v>3.3</v>
@@ -21628,7 +21634,7 @@
         <v>144</v>
       </c>
       <c r="P101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21834,7 +21840,7 @@
         <v>145</v>
       </c>
       <c r="P102" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q102">
         <v>2.3</v>
@@ -21991,6 +21997,624 @@
       </c>
       <c r="BP102">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7806857</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>146</v>
+      </c>
+      <c r="P103" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q103">
+        <v>2.1</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>4.6</v>
+      </c>
+      <c r="T103">
+        <v>1.3</v>
+      </c>
+      <c r="U103">
+        <v>3.2</v>
+      </c>
+      <c r="V103">
+        <v>2.4</v>
+      </c>
+      <c r="W103">
+        <v>1.49</v>
+      </c>
+      <c r="X103">
+        <v>5.75</v>
+      </c>
+      <c r="Y103">
+        <v>1.12</v>
+      </c>
+      <c r="Z103">
+        <v>1.55</v>
+      </c>
+      <c r="AA103">
+        <v>3.77</v>
+      </c>
+      <c r="AB103">
+        <v>4.75</v>
+      </c>
+      <c r="AC103">
+        <v>1.04</v>
+      </c>
+      <c r="AD103">
+        <v>10</v>
+      </c>
+      <c r="AE103">
+        <v>1.22</v>
+      </c>
+      <c r="AF103">
+        <v>4.2</v>
+      </c>
+      <c r="AG103">
+        <v>1.77</v>
+      </c>
+      <c r="AH103">
+        <v>1.93</v>
+      </c>
+      <c r="AI103">
+        <v>1.75</v>
+      </c>
+      <c r="AJ103">
+        <v>1.95</v>
+      </c>
+      <c r="AK103">
+        <v>1.18</v>
+      </c>
+      <c r="AL103">
+        <v>1.22</v>
+      </c>
+      <c r="AM103">
+        <v>2.2</v>
+      </c>
+      <c r="AN103">
+        <v>1.57</v>
+      </c>
+      <c r="AO103">
+        <v>0.38</v>
+      </c>
+      <c r="AP103">
+        <v>1.5</v>
+      </c>
+      <c r="AQ103">
+        <v>0.44</v>
+      </c>
+      <c r="AR103">
+        <v>1.8</v>
+      </c>
+      <c r="AS103">
+        <v>1.27</v>
+      </c>
+      <c r="AT103">
+        <v>3.07</v>
+      </c>
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>5</v>
+      </c>
+      <c r="AX103">
+        <v>4</v>
+      </c>
+      <c r="AY103">
+        <v>9</v>
+      </c>
+      <c r="AZ103">
+        <v>11</v>
+      </c>
+      <c r="BA103">
+        <v>7</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>1.52</v>
+      </c>
+      <c r="BE103">
+        <v>6.4</v>
+      </c>
+      <c r="BF103">
+        <v>2.8</v>
+      </c>
+      <c r="BG103">
+        <v>1.46</v>
+      </c>
+      <c r="BH103">
+        <v>2.5</v>
+      </c>
+      <c r="BI103">
+        <v>1.76</v>
+      </c>
+      <c r="BJ103">
+        <v>1.94</v>
+      </c>
+      <c r="BK103">
+        <v>2.2</v>
+      </c>
+      <c r="BL103">
+        <v>1.57</v>
+      </c>
+      <c r="BM103">
+        <v>2.9</v>
+      </c>
+      <c r="BN103">
+        <v>1.35</v>
+      </c>
+      <c r="BO103">
+        <v>3.8</v>
+      </c>
+      <c r="BP103">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7806858</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="F104">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>78</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>147</v>
+      </c>
+      <c r="P104" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q104">
+        <v>2.55</v>
+      </c>
+      <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>2.8</v>
+      </c>
+      <c r="W104">
+        <v>1.38</v>
+      </c>
+      <c r="X104">
+        <v>7.1</v>
+      </c>
+      <c r="Y104">
+        <v>1.04</v>
+      </c>
+      <c r="Z104">
+        <v>1.95</v>
+      </c>
+      <c r="AA104">
+        <v>3.25</v>
+      </c>
+      <c r="AB104">
+        <v>3.34</v>
+      </c>
+      <c r="AC104">
+        <v>1.06</v>
+      </c>
+      <c r="AD104">
+        <v>8.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.33</v>
+      </c>
+      <c r="AF104">
+        <v>3.3</v>
+      </c>
+      <c r="AG104">
+        <v>1.93</v>
+      </c>
+      <c r="AH104">
+        <v>1.77</v>
+      </c>
+      <c r="AI104">
+        <v>1.77</v>
+      </c>
+      <c r="AJ104">
+        <v>1.91</v>
+      </c>
+      <c r="AK104">
+        <v>1.28</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.77</v>
+      </c>
+      <c r="AN104">
+        <v>1.63</v>
+      </c>
+      <c r="AO104">
+        <v>1.5</v>
+      </c>
+      <c r="AP104">
+        <v>1.78</v>
+      </c>
+      <c r="AQ104">
+        <v>1.33</v>
+      </c>
+      <c r="AR104">
+        <v>1.62</v>
+      </c>
+      <c r="AS104">
+        <v>0.92</v>
+      </c>
+      <c r="AT104">
+        <v>2.54</v>
+      </c>
+      <c r="AU104">
+        <v>5</v>
+      </c>
+      <c r="AV104">
+        <v>3</v>
+      </c>
+      <c r="AW104">
+        <v>4</v>
+      </c>
+      <c r="AX104">
+        <v>7</v>
+      </c>
+      <c r="AY104">
+        <v>11</v>
+      </c>
+      <c r="AZ104">
+        <v>11</v>
+      </c>
+      <c r="BA104">
+        <v>4</v>
+      </c>
+      <c r="BB104">
+        <v>5</v>
+      </c>
+      <c r="BC104">
+        <v>9</v>
+      </c>
+      <c r="BD104">
+        <v>1.68</v>
+      </c>
+      <c r="BE104">
+        <v>6.25</v>
+      </c>
+      <c r="BF104">
+        <v>2.48</v>
+      </c>
+      <c r="BG104">
+        <v>1.53</v>
+      </c>
+      <c r="BH104">
+        <v>2.32</v>
+      </c>
+      <c r="BI104">
+        <v>1.9</v>
+      </c>
+      <c r="BJ104">
+        <v>1.79</v>
+      </c>
+      <c r="BK104">
+        <v>2.4</v>
+      </c>
+      <c r="BL104">
+        <v>1.49</v>
+      </c>
+      <c r="BM104">
+        <v>3.15</v>
+      </c>
+      <c r="BN104">
+        <v>1.29</v>
+      </c>
+      <c r="BO104">
+        <v>4.3</v>
+      </c>
+      <c r="BP104">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7806859</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="F105">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>72</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>148</v>
+      </c>
+      <c r="P105" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q105">
+        <v>3.65</v>
+      </c>
+      <c r="R105">
+        <v>2.1</v>
+      </c>
+      <c r="S105">
+        <v>2.7</v>
+      </c>
+      <c r="T105">
+        <v>1.38</v>
+      </c>
+      <c r="U105">
+        <v>2.8</v>
+      </c>
+      <c r="V105">
+        <v>2.8</v>
+      </c>
+      <c r="W105">
+        <v>1.38</v>
+      </c>
+      <c r="X105">
+        <v>7.2</v>
+      </c>
+      <c r="Y105">
+        <v>1.03</v>
+      </c>
+      <c r="Z105">
+        <v>3.03</v>
+      </c>
+      <c r="AA105">
+        <v>3.29</v>
+      </c>
+      <c r="AB105">
+        <v>2.06</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.3</v>
+      </c>
+      <c r="AF105">
+        <v>3.4</v>
+      </c>
+      <c r="AG105">
+        <v>1.9</v>
+      </c>
+      <c r="AH105">
+        <v>1.8</v>
+      </c>
+      <c r="AI105">
+        <v>1.73</v>
+      </c>
+      <c r="AJ105">
+        <v>1.95</v>
+      </c>
+      <c r="AK105">
+        <v>1.67</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.33</v>
+      </c>
+      <c r="AN105">
+        <v>1.13</v>
+      </c>
+      <c r="AO105">
+        <v>1.29</v>
+      </c>
+      <c r="AP105">
+        <v>1.11</v>
+      </c>
+      <c r="AQ105">
+        <v>1.25</v>
+      </c>
+      <c r="AR105">
+        <v>1.83</v>
+      </c>
+      <c r="AS105">
+        <v>1.07</v>
+      </c>
+      <c r="AT105">
+        <v>2.9</v>
+      </c>
+      <c r="AU105">
+        <v>2</v>
+      </c>
+      <c r="AV105">
+        <v>7</v>
+      </c>
+      <c r="AW105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>13</v>
+      </c>
+      <c r="BA105">
+        <v>1</v>
+      </c>
+      <c r="BB105">
+        <v>8</v>
+      </c>
+      <c r="BC105">
+        <v>9</v>
+      </c>
+      <c r="BD105">
+        <v>2</v>
+      </c>
+      <c r="BE105">
+        <v>6.4</v>
+      </c>
+      <c r="BF105">
+        <v>1.98</v>
+      </c>
+      <c r="BG105">
+        <v>1.41</v>
+      </c>
+      <c r="BH105">
+        <v>2.65</v>
+      </c>
+      <c r="BI105">
+        <v>1.68</v>
+      </c>
+      <c r="BJ105">
+        <v>2.05</v>
+      </c>
+      <c r="BK105">
+        <v>2.08</v>
+      </c>
+      <c r="BL105">
+        <v>1.65</v>
+      </c>
+      <c r="BM105">
+        <v>2.65</v>
+      </c>
+      <c r="BN105">
+        <v>1.41</v>
+      </c>
+      <c r="BO105">
+        <v>3.55</v>
+      </c>
+      <c r="BP105">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -1345,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="AY2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA2">
         <v>7</v>
@@ -1551,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="AY3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3">
         <v>8</v>
@@ -1757,10 +1757,10 @@
         <v>2</v>
       </c>
       <c r="AY4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -1963,10 +1963,10 @@
         <v>3</v>
       </c>
       <c r="AY5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -2169,10 +2169,10 @@
         <v>5</v>
       </c>
       <c r="AY6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA6">
         <v>10</v>
@@ -2375,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ7">
         <v>9</v>
@@ -2787,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="AY9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA9">
         <v>9</v>
@@ -3199,10 +3199,10 @@
         <v>10</v>
       </c>
       <c r="AY11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3405,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ12">
         <v>5</v>
@@ -3611,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="AY13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ13">
         <v>6</v>
@@ -3817,10 +3817,10 @@
         <v>5</v>
       </c>
       <c r="AY14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA14">
         <v>5</v>
@@ -4023,10 +4023,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA15">
         <v>7</v>
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA16">
         <v>2</v>
@@ -4435,10 +4435,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA17">
         <v>2</v>
@@ -4644,7 +4644,7 @@
         <v>8</v>
       </c>
       <c r="AZ18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA18">
         <v>6</v>
@@ -5053,10 +5053,10 @@
         <v>4</v>
       </c>
       <c r="AY20">
+        <v>9</v>
+      </c>
+      <c r="AZ20">
         <v>10</v>
-      </c>
-      <c r="AZ20">
-        <v>11</v>
       </c>
       <c r="BA20">
         <v>4</v>
@@ -5259,10 +5259,10 @@
         <v>3</v>
       </c>
       <c r="AY21">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA21">
         <v>6</v>
@@ -5465,10 +5465,10 @@
         <v>9</v>
       </c>
       <c r="AY22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA22">
         <v>5</v>
@@ -5671,10 +5671,10 @@
         <v>9</v>
       </c>
       <c r="AY23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA23">
         <v>8</v>
@@ -5877,10 +5877,10 @@
         <v>2</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA24">
         <v>5</v>
@@ -6083,10 +6083,10 @@
         <v>6</v>
       </c>
       <c r="AY25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA25">
         <v>1</v>
@@ -6292,7 +6292,7 @@
         <v>7</v>
       </c>
       <c r="AZ26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA26">
         <v>1</v>
@@ -6495,10 +6495,10 @@
         <v>7</v>
       </c>
       <c r="AY27">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AZ27">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA27">
         <v>14</v>
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="AZ28">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BA28">
         <v>1</v>
@@ -6907,10 +6907,10 @@
         <v>8</v>
       </c>
       <c r="AY29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA29">
         <v>4</v>
@@ -7113,10 +7113,10 @@
         <v>8</v>
       </c>
       <c r="AY30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA30">
         <v>5</v>
@@ -7319,10 +7319,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA31">
         <v>6</v>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="AY32">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AZ32">
         <v>4</v>
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="AY33">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA33">
         <v>5</v>
@@ -7937,10 +7937,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ34">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8143,10 +8143,10 @@
         <v>10</v>
       </c>
       <c r="AY35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8349,10 +8349,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA36">
         <v>4</v>
@@ -8555,10 +8555,10 @@
         <v>3</v>
       </c>
       <c r="AY37">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ37">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA37">
         <v>7</v>
@@ -8761,7 +8761,7 @@
         <v>2</v>
       </c>
       <c r="AY38">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ38">
         <v>7</v>
@@ -8967,10 +8967,10 @@
         <v>10</v>
       </c>
       <c r="AY39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA39">
         <v>2</v>
@@ -9173,10 +9173,10 @@
         <v>6</v>
       </c>
       <c r="AY40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ40">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -9379,10 +9379,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ41">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9585,10 +9585,10 @@
         <v>11</v>
       </c>
       <c r="AY42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ42">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA42">
         <v>1</v>
@@ -9791,10 +9791,10 @@
         <v>7</v>
       </c>
       <c r="AY43">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>5</v>
@@ -10000,7 +10000,7 @@
         <v>9</v>
       </c>
       <c r="AZ44">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA44">
         <v>7</v>
@@ -10203,10 +10203,10 @@
         <v>8</v>
       </c>
       <c r="AY45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA45">
         <v>4</v>
@@ -10409,10 +10409,10 @@
         <v>8</v>
       </c>
       <c r="AY46">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ46">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA46">
         <v>4</v>
@@ -10615,10 +10615,10 @@
         <v>4</v>
       </c>
       <c r="AY47">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ47">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA47">
         <v>6</v>
@@ -10821,10 +10821,10 @@
         <v>4</v>
       </c>
       <c r="AY48">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA48">
         <v>1</v>
@@ -11027,7 +11027,7 @@
         <v>2</v>
       </c>
       <c r="AY49">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ49">
         <v>7</v>
@@ -11233,10 +11233,10 @@
         <v>7</v>
       </c>
       <c r="AY50">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ50">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11439,10 +11439,10 @@
         <v>11</v>
       </c>
       <c r="AY51">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ51">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA51">
         <v>5</v>
@@ -11645,10 +11645,10 @@
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AZ52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA52">
         <v>9</v>
@@ -11851,10 +11851,10 @@
         <v>7</v>
       </c>
       <c r="AY53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -12057,10 +12057,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA54">
         <v>4</v>
@@ -12263,10 +12263,10 @@
         <v>4</v>
       </c>
       <c r="AY55">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AZ55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12469,10 +12469,10 @@
         <v>6</v>
       </c>
       <c r="AY56">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ56">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA56">
         <v>8</v>
@@ -12675,10 +12675,10 @@
         <v>5</v>
       </c>
       <c r="AY57">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ57">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA57">
         <v>5</v>
@@ -12881,10 +12881,10 @@
         <v>10</v>
       </c>
       <c r="AY58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA58">
         <v>6</v>
@@ -13087,10 +13087,10 @@
         <v>5</v>
       </c>
       <c r="AY59">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA59">
         <v>2</v>
@@ -13293,10 +13293,10 @@
         <v>11</v>
       </c>
       <c r="AY60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ60">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA60">
         <v>6</v>
@@ -13499,10 +13499,10 @@
         <v>11</v>
       </c>
       <c r="AY61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ61">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA61">
         <v>3</v>
@@ -13705,10 +13705,10 @@
         <v>9</v>
       </c>
       <c r="AY62">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ62">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA62">
         <v>7</v>
@@ -13911,10 +13911,10 @@
         <v>2</v>
       </c>
       <c r="AY63">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14120,7 +14120,7 @@
         <v>12</v>
       </c>
       <c r="AZ64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA64">
         <v>4</v>
@@ -14326,7 +14326,7 @@
         <v>9</v>
       </c>
       <c r="AZ65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA65">
         <v>5</v>
@@ -14529,10 +14529,10 @@
         <v>9</v>
       </c>
       <c r="AY66">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ66">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA66">
         <v>4</v>
@@ -14735,10 +14735,10 @@
         <v>9</v>
       </c>
       <c r="AY67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ67">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA67">
         <v>2</v>
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="AY68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ68">
         <v>4</v>
@@ -15147,10 +15147,10 @@
         <v>7</v>
       </c>
       <c r="AY69">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ69">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA69">
         <v>4</v>
@@ -15353,10 +15353,10 @@
         <v>6</v>
       </c>
       <c r="AY70">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA70">
         <v>6</v>
@@ -15559,10 +15559,10 @@
         <v>9</v>
       </c>
       <c r="AY71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ71">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA71">
         <v>1</v>
@@ -15765,10 +15765,10 @@
         <v>1</v>
       </c>
       <c r="AY72">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -15971,10 +15971,10 @@
         <v>1</v>
       </c>
       <c r="AY73">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AZ73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA73">
         <v>8</v>
@@ -16180,7 +16180,7 @@
         <v>8</v>
       </c>
       <c r="AZ74">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA74">
         <v>2</v>
@@ -16383,10 +16383,10 @@
         <v>6</v>
       </c>
       <c r="AY75">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ75">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA75">
         <v>6</v>
@@ -16589,10 +16589,10 @@
         <v>7</v>
       </c>
       <c r="AY76">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA76">
         <v>6</v>
@@ -16795,10 +16795,10 @@
         <v>5</v>
       </c>
       <c r="AY77">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA77">
         <v>10</v>
@@ -17004,7 +17004,7 @@
         <v>2</v>
       </c>
       <c r="AZ78">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="BA78">
         <v>0</v>
@@ -17207,10 +17207,10 @@
         <v>4</v>
       </c>
       <c r="AY79">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA79">
         <v>2</v>
@@ -17416,7 +17416,7 @@
         <v>8</v>
       </c>
       <c r="AZ80">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -17619,10 +17619,10 @@
         <v>2</v>
       </c>
       <c r="AY81">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA81">
         <v>6</v>
@@ -17825,10 +17825,10 @@
         <v>7</v>
       </c>
       <c r="AY82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ82">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA82">
         <v>6</v>
@@ -18031,10 +18031,10 @@
         <v>3</v>
       </c>
       <c r="AY83">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ83">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA83">
         <v>2</v>
@@ -18237,7 +18237,7 @@
         <v>4</v>
       </c>
       <c r="AY84">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ84">
         <v>7</v>
@@ -18443,7 +18443,7 @@
         <v>7</v>
       </c>
       <c r="AY85">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ85">
         <v>9</v>
@@ -18652,7 +18652,7 @@
         <v>9</v>
       </c>
       <c r="AZ86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA86">
         <v>7</v>
@@ -18855,10 +18855,10 @@
         <v>3</v>
       </c>
       <c r="AY87">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AZ87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA87">
         <v>8</v>
@@ -19061,10 +19061,10 @@
         <v>7</v>
       </c>
       <c r="AY88">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ88">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA88">
         <v>2</v>
@@ -19267,10 +19267,10 @@
         <v>5</v>
       </c>
       <c r="AY89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ89">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA89">
         <v>3</v>
@@ -19473,10 +19473,10 @@
         <v>3</v>
       </c>
       <c r="AY90">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AZ90">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA90">
         <v>6</v>
@@ -19679,10 +19679,10 @@
         <v>5</v>
       </c>
       <c r="AY91">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ91">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA91">
         <v>5</v>
@@ -19888,7 +19888,7 @@
         <v>10</v>
       </c>
       <c r="AZ92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA92">
         <v>4</v>
@@ -20091,7 +20091,7 @@
         <v>2</v>
       </c>
       <c r="AY93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ93">
         <v>4</v>
@@ -20297,10 +20297,10 @@
         <v>7</v>
       </c>
       <c r="AY94">
+        <v>7</v>
+      </c>
+      <c r="AZ94">
         <v>10</v>
-      </c>
-      <c r="AZ94">
-        <v>14</v>
       </c>
       <c r="BA94">
         <v>4</v>
@@ -20503,10 +20503,10 @@
         <v>5</v>
       </c>
       <c r="AY95">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ95">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA95">
         <v>1</v>
@@ -20709,10 +20709,10 @@
         <v>12</v>
       </c>
       <c r="AY96">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AZ96">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BA96">
         <v>5</v>
@@ -20915,10 +20915,10 @@
         <v>2</v>
       </c>
       <c r="AY97">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA97">
         <v>5</v>
@@ -21121,10 +21121,10 @@
         <v>6</v>
       </c>
       <c r="AY98">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ98">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA98">
         <v>9</v>
@@ -21327,10 +21327,10 @@
         <v>8</v>
       </c>
       <c r="AY99">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ99">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA99">
         <v>7</v>
@@ -21533,10 +21533,10 @@
         <v>3</v>
       </c>
       <c r="AY100">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA100">
         <v>2</v>
@@ -21739,10 +21739,10 @@
         <v>6</v>
       </c>
       <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
         <v>9</v>
-      </c>
-      <c r="AZ101">
-        <v>10</v>
       </c>
       <c r="BA101">
         <v>4</v>
@@ -21945,7 +21945,7 @@
         <v>3</v>
       </c>
       <c r="AY102">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AZ102">
         <v>9</v>
@@ -22151,10 +22151,10 @@
         <v>4</v>
       </c>
       <c r="AY103">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA103">
         <v>7</v>
@@ -22357,10 +22357,10 @@
         <v>7</v>
       </c>
       <c r="AY104">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ104">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA104">
         <v>4</v>
@@ -22563,10 +22563,10 @@
         <v>5</v>
       </c>
       <c r="AY105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ105">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA105">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 1_2025.xlsx
@@ -448,7 +448,7 @@
     <t>['31']</t>
   </si>
   <si>
-    <t>['26', '86', '90+8']</t>
+    <t>['26', '87', '9008']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -457,7 +457,7 @@
     <t>['77']</t>
   </si>
   <si>
-    <t>['45+2', '69']</t>
+    <t>['4502', '69']</t>
   </si>
   <si>
     <t>['67']</t>
@@ -610,7 +610,7 @@
     <t>['17', '45+6', '66', '71']</t>
   </si>
   <si>
-    <t>['21', '26', '89']</t>
+    <t>['22', '26', '89']</t>
   </si>
   <si>
     <t>['2']</t>
@@ -20903,22 +20903,22 @@
         <v>3.53</v>
       </c>
       <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
         <v>7</v>
       </c>
-      <c r="AV97">
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
         <v>8</v>
       </c>
-      <c r="AW97">
-        <v>10</v>
-      </c>
-      <c r="AX97">
-        <v>2</v>
-      </c>
-      <c r="AY97">
-        <v>17</v>
-      </c>
       <c r="AZ97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA97">
         <v>5</v>
@@ -21109,22 +21109,22 @@
         <v>2.94</v>
       </c>
       <c r="AU98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV98">
         <v>4</v>
       </c>
       <c r="AW98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY98">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA98">
         <v>9</v>
@@ -21315,22 +21315,22 @@
         <v>3.35</v>
       </c>
       <c r="AU99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV99">
         <v>4</v>
       </c>
       <c r="AW99">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AX99">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY99">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ99">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA99">
         <v>7</v>
@@ -21527,25 +21527,25 @@
         <v>5</v>
       </c>
       <c r="AW100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY100">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ100">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA100">
         <v>2</v>
       </c>
       <c r="BB100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD100">
         <v>1.98</v>
@@ -21721,28 +21721,28 @@
         <v>1.6</v>
       </c>
       <c r="AS101">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT101">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="AU101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW101">
         <v>2</v>
       </c>
       <c r="AX101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY101">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA101">
         <v>4</v>
@@ -21933,19 +21933,19 @@
         <v>3.19</v>
       </c>
       <c r="AU102">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV102">
         <v>6</v>
       </c>
       <c r="AW102">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AX102">
         <v>3</v>
       </c>
       <c r="AY102">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AZ102">
         <v>9</v>
@@ -22130,16 +22130,16 @@
         <v>0.44</v>
       </c>
       <c r="AR103">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AS103">
         <v>1.27</v>
       </c>
       <c r="AT103">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="AU103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV103">
         <v>6</v>
@@ -22151,7 +22151,7 @@
         <v>4</v>
       </c>
       <c r="AY103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ103">
         <v>10</v>
@@ -22348,13 +22348,13 @@
         <v>5</v>
       </c>
       <c r="AV104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW104">
         <v>4</v>
       </c>
       <c r="AX104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY104">
         <v>9</v>
@@ -22551,10 +22551,10 @@
         <v>2.9</v>
       </c>
       <c r="AU105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW105">
         <v>5</v>
@@ -22563,10 +22563,10 @@
         <v>5</v>
       </c>
       <c r="AY105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ105">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA105">
         <v>1</v>
